--- a/excel/finished/8高炉/热风炉监控日报.xlsx
+++ b/excel/finished/8高炉/热风炉监控日报.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12480"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20730" windowHeight="11760"/>
   </bookViews>
   <sheets>
     <sheet name="热风炉监控报表" sheetId="1" r:id="rId1"/>
@@ -15,7 +15,7 @@
     <sheet name="_metadata" sheetId="3" r:id="rId6"/>
     <sheet name="_dictionary" sheetId="4" r:id="rId7"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="145621"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -1237,24 +1237,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="180" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="2" fontId="2" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="2" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="178" fontId="2" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="178" fontId="2" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="2" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="2" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="177" fontId="2" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1279,6 +1261,18 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="2" fontId="2" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="2" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="178" fontId="2" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="178" fontId="2" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1287,6 +1281,12 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="2" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="2" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="179" fontId="0" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1569,7 +1569,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1579,8 +1579,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AB34"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+    <sheetView tabSelected="1" topLeftCell="I1" workbookViewId="0">
+      <selection activeCell="T5" sqref="T5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25"/>
@@ -1599,111 +1599,111 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:28" ht="24" customHeight="1" thickBot="1">
-      <c r="A1" s="86" t="s">
+      <c r="A1" s="80" t="s">
         <v>29</v>
       </c>
-      <c r="B1" s="86"/>
-      <c r="C1" s="86"/>
-      <c r="D1" s="86"/>
-      <c r="E1" s="86"/>
-      <c r="F1" s="86"/>
-      <c r="G1" s="86"/>
-      <c r="H1" s="86"/>
-      <c r="I1" s="86"/>
-      <c r="J1" s="86"/>
-      <c r="K1" s="86"/>
-      <c r="L1" s="86"/>
-      <c r="M1" s="86"/>
-      <c r="N1" s="86"/>
-      <c r="O1" s="86"/>
-      <c r="P1" s="86"/>
-      <c r="Q1" s="86"/>
-      <c r="R1" s="86"/>
-      <c r="S1" s="86"/>
-      <c r="T1" s="86"/>
-      <c r="U1" s="86"/>
-      <c r="V1" s="86"/>
-      <c r="W1" s="86"/>
-      <c r="X1" s="86"/>
-      <c r="Y1" s="86"/>
-      <c r="Z1" s="86"/>
-      <c r="AA1" s="86"/>
-      <c r="AB1" s="86"/>
+      <c r="B1" s="80"/>
+      <c r="C1" s="80"/>
+      <c r="D1" s="80"/>
+      <c r="E1" s="80"/>
+      <c r="F1" s="80"/>
+      <c r="G1" s="80"/>
+      <c r="H1" s="80"/>
+      <c r="I1" s="80"/>
+      <c r="J1" s="80"/>
+      <c r="K1" s="80"/>
+      <c r="L1" s="80"/>
+      <c r="M1" s="80"/>
+      <c r="N1" s="80"/>
+      <c r="O1" s="80"/>
+      <c r="P1" s="80"/>
+      <c r="Q1" s="80"/>
+      <c r="R1" s="80"/>
+      <c r="S1" s="80"/>
+      <c r="T1" s="80"/>
+      <c r="U1" s="80"/>
+      <c r="V1" s="80"/>
+      <c r="W1" s="80"/>
+      <c r="X1" s="80"/>
+      <c r="Y1" s="80"/>
+      <c r="Z1" s="80"/>
+      <c r="AA1" s="80"/>
+      <c r="AB1" s="80"/>
     </row>
     <row r="2" spans="1:28" ht="27.6" customHeight="1">
-      <c r="A2" s="87" t="s">
+      <c r="A2" s="81" t="s">
         <v>30</v>
       </c>
       <c r="B2" s="26" t="s">
         <v>31</v>
       </c>
-      <c r="C2" s="89" t="s">
-        <v>0</v>
-      </c>
-      <c r="D2" s="90"/>
-      <c r="E2" s="89" t="s">
+      <c r="C2" s="83" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2" s="84"/>
+      <c r="E2" s="83" t="s">
         <v>1</v>
       </c>
-      <c r="F2" s="90" t="s">
+      <c r="F2" s="84" t="s">
         <v>32</v>
       </c>
-      <c r="G2" s="89" t="s">
+      <c r="G2" s="83" t="s">
         <v>2</v>
       </c>
-      <c r="H2" s="90" t="s">
+      <c r="H2" s="84" t="s">
         <v>33</v>
       </c>
-      <c r="I2" s="89" t="s">
+      <c r="I2" s="83" t="s">
         <v>3</v>
       </c>
-      <c r="J2" s="90" t="s">
+      <c r="J2" s="84" t="s">
         <v>34</v>
       </c>
-      <c r="K2" s="89" t="s">
+      <c r="K2" s="83" t="s">
         <v>35</v>
       </c>
-      <c r="L2" s="91"/>
-      <c r="M2" s="89" t="s">
+      <c r="L2" s="85"/>
+      <c r="M2" s="83" t="s">
         <v>36</v>
       </c>
-      <c r="N2" s="91"/>
-      <c r="O2" s="91"/>
-      <c r="P2" s="91"/>
-      <c r="Q2" s="91"/>
-      <c r="R2" s="90"/>
-      <c r="S2" s="78" t="s">
+      <c r="N2" s="85"/>
+      <c r="O2" s="85"/>
+      <c r="P2" s="85"/>
+      <c r="Q2" s="85"/>
+      <c r="R2" s="84"/>
+      <c r="S2" s="86" t="s">
         <v>37</v>
       </c>
-      <c r="T2" s="78" t="s">
+      <c r="T2" s="86" t="s">
         <v>38</v>
       </c>
-      <c r="U2" s="78" t="s">
+      <c r="U2" s="86" t="s">
         <v>39</v>
       </c>
-      <c r="V2" s="78" t="s">
+      <c r="V2" s="86" t="s">
         <v>40</v>
       </c>
-      <c r="W2" s="80" t="s">
+      <c r="W2" s="88" t="s">
         <v>41</v>
       </c>
-      <c r="X2" s="82" t="s">
+      <c r="X2" s="93" t="s">
         <v>42</v>
       </c>
-      <c r="Y2" s="84" t="s">
+      <c r="Y2" s="78" t="s">
         <v>43</v>
       </c>
-      <c r="Z2" s="80" t="s">
+      <c r="Z2" s="88" t="s">
         <v>44</v>
       </c>
-      <c r="AA2" s="92" t="s">
+      <c r="AA2" s="90" t="s">
         <v>45</v>
       </c>
-      <c r="AB2" s="87" t="s">
+      <c r="AB2" s="81" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="3" spans="1:28" ht="15.75" thickBot="1">
-      <c r="A3" s="88"/>
+      <c r="A3" s="82"/>
       <c r="B3" s="27" t="s">
         <v>47</v>
       </c>
@@ -1755,16 +1755,16 @@
       <c r="R3" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="S3" s="79"/>
-      <c r="T3" s="79"/>
-      <c r="U3" s="79"/>
-      <c r="V3" s="79"/>
-      <c r="W3" s="81"/>
-      <c r="X3" s="83"/>
-      <c r="Y3" s="85"/>
-      <c r="Z3" s="81"/>
-      <c r="AA3" s="93"/>
-      <c r="AB3" s="94"/>
+      <c r="S3" s="87"/>
+      <c r="T3" s="87"/>
+      <c r="U3" s="87"/>
+      <c r="V3" s="87"/>
+      <c r="W3" s="89"/>
+      <c r="X3" s="94"/>
+      <c r="Y3" s="79"/>
+      <c r="Z3" s="89"/>
+      <c r="AA3" s="91"/>
+      <c r="AB3" s="92"/>
     </row>
     <row r="4" spans="1:28" ht="35.25" hidden="1" customHeight="1">
       <c r="A4" s="2"/>
@@ -1817,11 +1817,11 @@
       <c r="R4" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="S4" s="61" t="s">
+      <c r="S4" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="T4" s="3" t="s">
         <v>16</v>
-      </c>
-      <c r="T4" s="61" t="s">
-        <v>25</v>
       </c>
       <c r="U4" s="61" t="s">
         <v>26</v>
@@ -5130,9 +5130,6 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="T2:T3"/>
-    <mergeCell ref="U2:U3"/>
-    <mergeCell ref="V2:V3"/>
     <mergeCell ref="W2:W3"/>
     <mergeCell ref="X2:X3"/>
     <mergeCell ref="Y2:Y3"/>
@@ -5148,6 +5145,9 @@
     <mergeCell ref="Z2:Z3"/>
     <mergeCell ref="AA2:AA3"/>
     <mergeCell ref="AB2:AB3"/>
+    <mergeCell ref="T2:T3"/>
+    <mergeCell ref="U2:U3"/>
+    <mergeCell ref="V2:V3"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5214,7 +5214,7 @@
     <row r="3" spans="1:8">
       <c r="A3" s="95">
         <f ca="1">IF(_metadata!B22="",EOMONTH(NOW(),-1)+1,_metadata!B22)</f>
-        <v>43525</v>
+        <v>43647</v>
       </c>
       <c r="B3" s="96" t="s">
         <v>77</v>
@@ -5385,7 +5385,7 @@
     <row r="9" spans="1:8">
       <c r="A9" s="95">
         <f ca="1">A3+1</f>
-        <v>43526</v>
+        <v>43648</v>
       </c>
       <c r="B9" s="96" t="s">
         <v>77</v>
@@ -5556,7 +5556,7 @@
     <row r="15" spans="1:8">
       <c r="A15" s="95">
         <f t="shared" ref="A15" ca="1" si="0">A9+1</f>
-        <v>43527</v>
+        <v>43649</v>
       </c>
       <c r="B15" s="96" t="s">
         <v>77</v>
@@ -5727,7 +5727,7 @@
     <row r="21" spans="1:8">
       <c r="A21" s="95">
         <f t="shared" ref="A21" ca="1" si="1">A15+1</f>
-        <v>43528</v>
+        <v>43650</v>
       </c>
       <c r="B21" s="96" t="s">
         <v>77</v>
@@ -5898,7 +5898,7 @@
     <row r="27" spans="1:8">
       <c r="A27" s="95">
         <f t="shared" ref="A27:A87" ca="1" si="2">A21+1</f>
-        <v>43529</v>
+        <v>43651</v>
       </c>
       <c r="B27" s="96" t="s">
         <v>77</v>
@@ -6069,7 +6069,7 @@
     <row r="33" spans="1:8">
       <c r="A33" s="95">
         <f t="shared" ref="A33:A93" ca="1" si="3">A27+1</f>
-        <v>43530</v>
+        <v>43652</v>
       </c>
       <c r="B33" s="96" t="s">
         <v>77</v>
@@ -6240,7 +6240,7 @@
     <row r="39" spans="1:8">
       <c r="A39" s="95">
         <f t="shared" ca="1" si="2"/>
-        <v>43531</v>
+        <v>43653</v>
       </c>
       <c r="B39" s="96" t="s">
         <v>77</v>
@@ -6411,7 +6411,7 @@
     <row r="45" spans="1:8">
       <c r="A45" s="95">
         <f t="shared" ca="1" si="3"/>
-        <v>43532</v>
+        <v>43654</v>
       </c>
       <c r="B45" s="96" t="s">
         <v>77</v>
@@ -6582,7 +6582,7 @@
     <row r="51" spans="1:8">
       <c r="A51" s="95">
         <f t="shared" ca="1" si="2"/>
-        <v>43533</v>
+        <v>43655</v>
       </c>
       <c r="B51" s="96" t="s">
         <v>77</v>
@@ -6753,7 +6753,7 @@
     <row r="57" spans="1:8">
       <c r="A57" s="95">
         <f t="shared" ca="1" si="3"/>
-        <v>43534</v>
+        <v>43656</v>
       </c>
       <c r="B57" s="96" t="s">
         <v>77</v>
@@ -6924,7 +6924,7 @@
     <row r="63" spans="1:8">
       <c r="A63" s="95">
         <f t="shared" ca="1" si="2"/>
-        <v>43535</v>
+        <v>43657</v>
       </c>
       <c r="B63" s="96" t="s">
         <v>77</v>
@@ -7095,7 +7095,7 @@
     <row r="69" spans="1:8">
       <c r="A69" s="95">
         <f t="shared" ca="1" si="3"/>
-        <v>43536</v>
+        <v>43658</v>
       </c>
       <c r="B69" s="96" t="s">
         <v>77</v>
@@ -7266,7 +7266,7 @@
     <row r="75" spans="1:8">
       <c r="A75" s="95">
         <f t="shared" ca="1" si="2"/>
-        <v>43537</v>
+        <v>43659</v>
       </c>
       <c r="B75" s="96" t="s">
         <v>77</v>
@@ -7437,7 +7437,7 @@
     <row r="81" spans="1:8">
       <c r="A81" s="95">
         <f t="shared" ca="1" si="3"/>
-        <v>43538</v>
+        <v>43660</v>
       </c>
       <c r="B81" s="96" t="s">
         <v>77</v>
@@ -7608,7 +7608,7 @@
     <row r="87" spans="1:8">
       <c r="A87" s="95">
         <f t="shared" ca="1" si="2"/>
-        <v>43539</v>
+        <v>43661</v>
       </c>
       <c r="B87" s="96" t="s">
         <v>77</v>
@@ -7779,7 +7779,7 @@
     <row r="93" spans="1:8">
       <c r="A93" s="95">
         <f t="shared" ca="1" si="3"/>
-        <v>43540</v>
+        <v>43662</v>
       </c>
       <c r="B93" s="96" t="s">
         <v>77</v>
@@ -7950,7 +7950,7 @@
     <row r="99" spans="1:8">
       <c r="A99" s="95">
         <f t="shared" ref="A99:A159" ca="1" si="4">A93+1</f>
-        <v>43541</v>
+        <v>43663</v>
       </c>
       <c r="B99" s="96" t="s">
         <v>77</v>
@@ -8121,7 +8121,7 @@
     <row r="105" spans="1:8">
       <c r="A105" s="95">
         <f t="shared" ref="A105:A165" ca="1" si="5">A99+1</f>
-        <v>43542</v>
+        <v>43664</v>
       </c>
       <c r="B105" s="96" t="s">
         <v>77</v>
@@ -8292,7 +8292,7 @@
     <row r="111" spans="1:8">
       <c r="A111" s="95">
         <f t="shared" ca="1" si="4"/>
-        <v>43543</v>
+        <v>43665</v>
       </c>
       <c r="B111" s="96" t="s">
         <v>77</v>
@@ -8463,7 +8463,7 @@
     <row r="117" spans="1:8">
       <c r="A117" s="95">
         <f t="shared" ca="1" si="5"/>
-        <v>43544</v>
+        <v>43666</v>
       </c>
       <c r="B117" s="96" t="s">
         <v>77</v>
@@ -8634,7 +8634,7 @@
     <row r="123" spans="1:8">
       <c r="A123" s="95">
         <f t="shared" ca="1" si="4"/>
-        <v>43545</v>
+        <v>43667</v>
       </c>
       <c r="B123" s="96" t="s">
         <v>77</v>
@@ -8805,7 +8805,7 @@
     <row r="129" spans="1:8">
       <c r="A129" s="95">
         <f t="shared" ca="1" si="5"/>
-        <v>43546</v>
+        <v>43668</v>
       </c>
       <c r="B129" s="96" t="s">
         <v>77</v>
@@ -8976,7 +8976,7 @@
     <row r="135" spans="1:8">
       <c r="A135" s="95">
         <f t="shared" ca="1" si="4"/>
-        <v>43547</v>
+        <v>43669</v>
       </c>
       <c r="B135" s="96" t="s">
         <v>77</v>
@@ -9147,7 +9147,7 @@
     <row r="141" spans="1:8">
       <c r="A141" s="95">
         <f t="shared" ca="1" si="5"/>
-        <v>43548</v>
+        <v>43670</v>
       </c>
       <c r="B141" s="96" t="s">
         <v>77</v>
@@ -9318,7 +9318,7 @@
     <row r="147" spans="1:8">
       <c r="A147" s="95">
         <f t="shared" ca="1" si="4"/>
-        <v>43549</v>
+        <v>43671</v>
       </c>
       <c r="B147" s="96" t="s">
         <v>77</v>
@@ -9489,7 +9489,7 @@
     <row r="153" spans="1:8">
       <c r="A153" s="95">
         <f t="shared" ca="1" si="5"/>
-        <v>43550</v>
+        <v>43672</v>
       </c>
       <c r="B153" s="96" t="s">
         <v>77</v>
@@ -9660,7 +9660,7 @@
     <row r="159" spans="1:8">
       <c r="A159" s="95">
         <f t="shared" ca="1" si="4"/>
-        <v>43551</v>
+        <v>43673</v>
       </c>
       <c r="B159" s="96" t="s">
         <v>77</v>
@@ -9831,7 +9831,7 @@
     <row r="165" spans="1:8">
       <c r="A165" s="95">
         <f t="shared" ca="1" si="5"/>
-        <v>43552</v>
+        <v>43674</v>
       </c>
       <c r="B165" s="96" t="s">
         <v>77</v>
@@ -10002,7 +10002,7 @@
     <row r="171" spans="1:8">
       <c r="A171" s="95">
         <f t="shared" ref="A171:A183" ca="1" si="6">A165+1</f>
-        <v>43553</v>
+        <v>43675</v>
       </c>
       <c r="B171" s="96" t="s">
         <v>77</v>
@@ -10173,7 +10173,7 @@
     <row r="177" spans="1:8">
       <c r="A177" s="95">
         <f t="shared" ref="A177" ca="1" si="7">A171+1</f>
-        <v>43554</v>
+        <v>43676</v>
       </c>
       <c r="B177" s="96" t="s">
         <v>77</v>
@@ -10344,7 +10344,7 @@
     <row r="183" spans="1:8">
       <c r="A183" s="95">
         <f t="shared" ca="1" si="6"/>
-        <v>43555</v>
+        <v>43677</v>
       </c>
       <c r="B183" s="96" t="s">
         <v>77</v>
@@ -10756,8 +10756,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AB1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1"/>
+    <sheetView topLeftCell="G1" workbookViewId="0">
+      <selection activeCell="S1" sqref="S1:T1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -10814,10 +10814,10 @@
         <v>24</v>
       </c>
       <c r="S1" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="T1" s="3" t="s">
         <v>16</v>
-      </c>
-      <c r="T1" s="3" t="s">
-        <v>25</v>
       </c>
       <c r="U1" s="3" t="s">
         <v>26</v>

--- a/excel/finished/8高炉/热风炉监控日报.xlsx
+++ b/excel/finished/8高炉/热风炉监控日报.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="398" uniqueCount="94">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="400" uniqueCount="96">
   <si>
     <t>1#</t>
   </si>
@@ -303,18 +303,6 @@
         <charset val="134"/>
       </rPr>
       <t>氧气流量</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>热风温度</t>
     </r>
   </si>
   <si>
@@ -651,6 +639,36 @@
   </si>
   <si>
     <t>BF8_L2C_HS_HS2_DomeTemp_8h_max</t>
+  </si>
+  <si>
+    <t>热风温度</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>热风温度</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>2</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BF8_L2C_BD_HotBlastTemp1_1h_avg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -1012,7 +1030,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="98">
+  <cellXfs count="99">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1237,6 +1255,18 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="180" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="178" fontId="2" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="178" fontId="2" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="2" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="2" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="177" fontId="2" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1267,12 +1297,6 @@
     <xf numFmtId="2" fontId="2" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="178" fontId="2" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="178" fontId="2" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1282,12 +1306,6 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="2" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="2" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="179" fontId="0" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1296,6 +1314,9 @@
     </xf>
     <xf numFmtId="0" fontId="9" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="3" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1569,7 +1590,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1577,10 +1598,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AB34"/>
+  <dimension ref="A1:AC34"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="I1" workbookViewId="0">
-      <selection activeCell="T5" sqref="T5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25"/>
@@ -1592,181 +1613,187 @@
     <col min="23" max="23" width="8.875" style="48"/>
     <col min="24" max="24" width="8.875" style="56"/>
     <col min="25" max="25" width="8.875" style="59"/>
-    <col min="26" max="26" width="8.875" style="48"/>
-    <col min="27" max="27" width="8.875" style="11"/>
-    <col min="28" max="28" width="30" style="11" customWidth="1"/>
-    <col min="29" max="16384" width="8.875" style="11"/>
+    <col min="26" max="26" width="11.125" style="59" customWidth="1"/>
+    <col min="27" max="27" width="8.875" style="48"/>
+    <col min="28" max="28" width="8.875" style="11"/>
+    <col min="29" max="29" width="30" style="11" customWidth="1"/>
+    <col min="30" max="16384" width="8.875" style="11"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:28" ht="24" customHeight="1" thickBot="1">
-      <c r="A1" s="80" t="s">
+    <row r="1" spans="1:29" ht="24" customHeight="1" thickBot="1">
+      <c r="A1" s="84" t="s">
         <v>29</v>
       </c>
-      <c r="B1" s="80"/>
-      <c r="C1" s="80"/>
-      <c r="D1" s="80"/>
-      <c r="E1" s="80"/>
-      <c r="F1" s="80"/>
-      <c r="G1" s="80"/>
-      <c r="H1" s="80"/>
-      <c r="I1" s="80"/>
-      <c r="J1" s="80"/>
-      <c r="K1" s="80"/>
-      <c r="L1" s="80"/>
-      <c r="M1" s="80"/>
-      <c r="N1" s="80"/>
-      <c r="O1" s="80"/>
-      <c r="P1" s="80"/>
-      <c r="Q1" s="80"/>
-      <c r="R1" s="80"/>
-      <c r="S1" s="80"/>
-      <c r="T1" s="80"/>
-      <c r="U1" s="80"/>
-      <c r="V1" s="80"/>
-      <c r="W1" s="80"/>
-      <c r="X1" s="80"/>
-      <c r="Y1" s="80"/>
-      <c r="Z1" s="80"/>
-      <c r="AA1" s="80"/>
-      <c r="AB1" s="80"/>
-    </row>
-    <row r="2" spans="1:28" ht="27.6" customHeight="1">
-      <c r="A2" s="81" t="s">
+      <c r="B1" s="84"/>
+      <c r="C1" s="84"/>
+      <c r="D1" s="84"/>
+      <c r="E1" s="84"/>
+      <c r="F1" s="84"/>
+      <c r="G1" s="84"/>
+      <c r="H1" s="84"/>
+      <c r="I1" s="84"/>
+      <c r="J1" s="84"/>
+      <c r="K1" s="84"/>
+      <c r="L1" s="84"/>
+      <c r="M1" s="84"/>
+      <c r="N1" s="84"/>
+      <c r="O1" s="84"/>
+      <c r="P1" s="84"/>
+      <c r="Q1" s="84"/>
+      <c r="R1" s="84"/>
+      <c r="S1" s="84"/>
+      <c r="T1" s="84"/>
+      <c r="U1" s="84"/>
+      <c r="V1" s="84"/>
+      <c r="W1" s="84"/>
+      <c r="X1" s="84"/>
+      <c r="Y1" s="84"/>
+      <c r="Z1" s="84"/>
+      <c r="AA1" s="84"/>
+      <c r="AB1" s="84"/>
+      <c r="AC1" s="84"/>
+    </row>
+    <row r="2" spans="1:29" ht="27.6" customHeight="1">
+      <c r="A2" s="85" t="s">
         <v>30</v>
       </c>
       <c r="B2" s="26" t="s">
         <v>31</v>
       </c>
-      <c r="C2" s="83" t="s">
-        <v>0</v>
-      </c>
-      <c r="D2" s="84"/>
-      <c r="E2" s="83" t="s">
+      <c r="C2" s="87" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2" s="88"/>
+      <c r="E2" s="87" t="s">
         <v>1</v>
       </c>
-      <c r="F2" s="84" t="s">
+      <c r="F2" s="88" t="s">
         <v>32</v>
       </c>
-      <c r="G2" s="83" t="s">
+      <c r="G2" s="87" t="s">
         <v>2</v>
       </c>
-      <c r="H2" s="84" t="s">
+      <c r="H2" s="88" t="s">
         <v>33</v>
       </c>
-      <c r="I2" s="83" t="s">
+      <c r="I2" s="87" t="s">
         <v>3</v>
       </c>
-      <c r="J2" s="84" t="s">
+      <c r="J2" s="88" t="s">
         <v>34</v>
       </c>
-      <c r="K2" s="83" t="s">
+      <c r="K2" s="87" t="s">
         <v>35</v>
       </c>
-      <c r="L2" s="85"/>
-      <c r="M2" s="83" t="s">
+      <c r="L2" s="89"/>
+      <c r="M2" s="87" t="s">
         <v>36</v>
       </c>
-      <c r="N2" s="85"/>
-      <c r="O2" s="85"/>
-      <c r="P2" s="85"/>
-      <c r="Q2" s="85"/>
-      <c r="R2" s="84"/>
-      <c r="S2" s="86" t="s">
+      <c r="N2" s="89"/>
+      <c r="O2" s="89"/>
+      <c r="P2" s="89"/>
+      <c r="Q2" s="89"/>
+      <c r="R2" s="88"/>
+      <c r="S2" s="90" t="s">
         <v>37</v>
       </c>
-      <c r="T2" s="86" t="s">
+      <c r="T2" s="90" t="s">
         <v>38</v>
       </c>
-      <c r="U2" s="86" t="s">
+      <c r="U2" s="90" t="s">
         <v>39</v>
       </c>
-      <c r="V2" s="86" t="s">
+      <c r="V2" s="90" t="s">
         <v>40</v>
       </c>
-      <c r="W2" s="88" t="s">
+      <c r="W2" s="78" t="s">
         <v>41</v>
       </c>
-      <c r="X2" s="93" t="s">
+      <c r="X2" s="80" t="s">
         <v>42</v>
       </c>
-      <c r="Y2" s="78" t="s">
+      <c r="Y2" s="98" t="s">
+        <v>93</v>
+      </c>
+      <c r="Z2" s="82" t="s">
+        <v>94</v>
+      </c>
+      <c r="AA2" s="78" t="s">
         <v>43</v>
       </c>
-      <c r="Z2" s="88" t="s">
+      <c r="AB2" s="92" t="s">
         <v>44</v>
       </c>
-      <c r="AA2" s="90" t="s">
+      <c r="AC2" s="85" t="s">
         <v>45</v>
       </c>
-      <c r="AB2" s="81" t="s">
+    </row>
+    <row r="3" spans="1:29" ht="15.75" thickBot="1">
+      <c r="A3" s="86"/>
+      <c r="B3" s="27" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="3" spans="1:28" ht="15.75" thickBot="1">
-      <c r="A3" s="82"/>
-      <c r="B3" s="27" t="s">
+      <c r="C3" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="D3" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="E3" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="J3" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="K3" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="E3" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="H3" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="I3" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="J3" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="K3" s="1" t="s">
+      <c r="L3" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="L3" s="1" t="s">
+      <c r="M3" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="M3" s="1" t="s">
+      <c r="N3" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="N3" s="1" t="s">
+      <c r="O3" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="O3" s="1" t="s">
+      <c r="P3" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="P3" s="1" t="s">
+      <c r="Q3" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="Q3" s="1" t="s">
+      <c r="R3" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="R3" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="S3" s="87"/>
-      <c r="T3" s="87"/>
-      <c r="U3" s="87"/>
-      <c r="V3" s="87"/>
-      <c r="W3" s="89"/>
-      <c r="X3" s="94"/>
-      <c r="Y3" s="79"/>
-      <c r="Z3" s="89"/>
-      <c r="AA3" s="91"/>
-      <c r="AB3" s="92"/>
-    </row>
-    <row r="4" spans="1:28" ht="35.25" hidden="1" customHeight="1">
+      <c r="S3" s="91"/>
+      <c r="T3" s="91"/>
+      <c r="U3" s="91"/>
+      <c r="V3" s="91"/>
+      <c r="W3" s="79"/>
+      <c r="X3" s="81"/>
+      <c r="Y3" s="83"/>
+      <c r="Z3" s="83"/>
+      <c r="AA3" s="79"/>
+      <c r="AB3" s="93"/>
+      <c r="AC3" s="94"/>
+    </row>
+    <row r="4" spans="1:29" ht="35.25" hidden="1" customHeight="1">
       <c r="A4" s="2"/>
       <c r="B4" s="28"/>
       <c r="C4" s="3" t="s">
@@ -1836,15 +1863,16 @@
         <v>18</v>
       </c>
       <c r="Y4" s="50" t="s">
-        <v>67</v>
-      </c>
-      <c r="Z4" s="42" t="s">
+        <v>66</v>
+      </c>
+      <c r="Z4" s="50"/>
+      <c r="AA4" s="42" t="s">
         <v>28</v>
       </c>
-      <c r="AA4" s="5"/>
-      <c r="AB4" s="6"/>
-    </row>
-    <row r="5" spans="1:28">
+      <c r="AB4" s="5"/>
+      <c r="AC4" s="6"/>
+    </row>
+    <row r="5" spans="1:29">
       <c r="A5" s="12">
         <v>0</v>
       </c>
@@ -1944,17 +1972,21 @@
         <f>IF(_cache_day_hour!Y2=0,"",_cache_day_hour!Y2)</f>
         <v/>
       </c>
-      <c r="Z5" s="43" t="str">
+      <c r="Z5" s="34" t="str">
+        <f>IF(_cache_day_hour!AA2=0,"",_cache_day_hour!AA2)</f>
+        <v/>
+      </c>
+      <c r="AA5" s="43" t="str">
         <f>IF(_cache_day_hour!Z2=0,"",_cache_day_hour!Z2)</f>
         <v/>
       </c>
-      <c r="AA5" s="13" t="str">
+      <c r="AB5" s="13" t="str">
         <f>IF(_cache_day_hour!AA2=0,"",_cache_day_hour!AA2)</f>
         <v/>
       </c>
-      <c r="AB5" s="14"/>
-    </row>
-    <row r="6" spans="1:28">
+      <c r="AC5" s="14"/>
+    </row>
+    <row r="6" spans="1:29">
       <c r="A6" s="12">
         <v>4.1666666666666699E-2</v>
       </c>
@@ -2054,17 +2086,21 @@
         <f>IF(_cache_day_hour!Y3=0,"",_cache_day_hour!Y3)</f>
         <v/>
       </c>
-      <c r="Z6" s="43" t="str">
+      <c r="Z6" s="34" t="str">
+        <f>IF(_cache_day_hour!AA3=0,"",_cache_day_hour!AA3)</f>
+        <v/>
+      </c>
+      <c r="AA6" s="43" t="str">
         <f>IF(_cache_day_hour!Z3=0,"",_cache_day_hour!Z3)</f>
         <v/>
       </c>
-      <c r="AA6" s="13" t="str">
+      <c r="AB6" s="13" t="str">
         <f>IF(_cache_day_hour!AA3=0,"",_cache_day_hour!AA3)</f>
         <v/>
       </c>
-      <c r="AB6" s="14"/>
-    </row>
-    <row r="7" spans="1:28">
+      <c r="AC6" s="14"/>
+    </row>
+    <row r="7" spans="1:29">
       <c r="A7" s="12">
         <v>8.3333333333333301E-2</v>
       </c>
@@ -2164,17 +2200,21 @@
         <f>IF(_cache_day_hour!Y4=0,"",_cache_day_hour!Y4)</f>
         <v/>
       </c>
-      <c r="Z7" s="43" t="str">
+      <c r="Z7" s="34" t="str">
+        <f>IF(_cache_day_hour!AA4=0,"",_cache_day_hour!AA4)</f>
+        <v/>
+      </c>
+      <c r="AA7" s="43" t="str">
         <f>IF(_cache_day_hour!Z4=0,"",_cache_day_hour!Z4)</f>
         <v/>
       </c>
-      <c r="AA7" s="13" t="str">
+      <c r="AB7" s="13" t="str">
         <f>IF(_cache_day_hour!AA4=0,"",_cache_day_hour!AA4)</f>
         <v/>
       </c>
-      <c r="AB7" s="14"/>
-    </row>
-    <row r="8" spans="1:28">
+      <c r="AC7" s="14"/>
+    </row>
+    <row r="8" spans="1:29">
       <c r="A8" s="12">
         <v>0.125</v>
       </c>
@@ -2274,17 +2314,21 @@
         <f>IF(_cache_day_hour!Y5=0,"",_cache_day_hour!Y5)</f>
         <v/>
       </c>
-      <c r="Z8" s="43" t="str">
+      <c r="Z8" s="34" t="str">
+        <f>IF(_cache_day_hour!AA5=0,"",_cache_day_hour!AA5)</f>
+        <v/>
+      </c>
+      <c r="AA8" s="43" t="str">
         <f>IF(_cache_day_hour!Z5=0,"",_cache_day_hour!Z5)</f>
         <v/>
       </c>
-      <c r="AA8" s="13" t="str">
+      <c r="AB8" s="13" t="str">
         <f>IF(_cache_day_hour!AA5=0,"",_cache_day_hour!AA5)</f>
         <v/>
       </c>
-      <c r="AB8" s="14"/>
-    </row>
-    <row r="9" spans="1:28">
+      <c r="AC8" s="14"/>
+    </row>
+    <row r="9" spans="1:29">
       <c r="A9" s="12">
         <v>0.16666666666666699</v>
       </c>
@@ -2384,17 +2428,21 @@
         <f>IF(_cache_day_hour!Y6=0,"",_cache_day_hour!Y6)</f>
         <v/>
       </c>
-      <c r="Z9" s="43" t="str">
+      <c r="Z9" s="34" t="str">
+        <f>IF(_cache_day_hour!AA6=0,"",_cache_day_hour!AA6)</f>
+        <v/>
+      </c>
+      <c r="AA9" s="43" t="str">
         <f>IF(_cache_day_hour!Z6=0,"",_cache_day_hour!Z6)</f>
         <v/>
       </c>
-      <c r="AA9" s="13" t="str">
+      <c r="AB9" s="13" t="str">
         <f>IF(_cache_day_hour!AA6=0,"",_cache_day_hour!AA6)</f>
         <v/>
       </c>
-      <c r="AB9" s="14"/>
-    </row>
-    <row r="10" spans="1:28">
+      <c r="AC9" s="14"/>
+    </row>
+    <row r="10" spans="1:29">
       <c r="A10" s="12">
         <v>0.20833333333333301</v>
       </c>
@@ -2494,17 +2542,21 @@
         <f>IF(_cache_day_hour!Y7=0,"",_cache_day_hour!Y7)</f>
         <v/>
       </c>
-      <c r="Z10" s="43" t="str">
+      <c r="Z10" s="34" t="str">
+        <f>IF(_cache_day_hour!AA7=0,"",_cache_day_hour!AA7)</f>
+        <v/>
+      </c>
+      <c r="AA10" s="43" t="str">
         <f>IF(_cache_day_hour!Z7=0,"",_cache_day_hour!Z7)</f>
         <v/>
       </c>
-      <c r="AA10" s="13" t="str">
+      <c r="AB10" s="13" t="str">
         <f>IF(_cache_day_hour!AA7=0,"",_cache_day_hour!AA7)</f>
         <v/>
       </c>
-      <c r="AB10" s="14"/>
-    </row>
-    <row r="11" spans="1:28">
+      <c r="AC10" s="14"/>
+    </row>
+    <row r="11" spans="1:29">
       <c r="A11" s="12">
         <v>0.25</v>
       </c>
@@ -2604,17 +2656,21 @@
         <f>IF(_cache_day_hour!Y8=0,"",_cache_day_hour!Y8)</f>
         <v/>
       </c>
-      <c r="Z11" s="43" t="str">
+      <c r="Z11" s="34" t="str">
+        <f>IF(_cache_day_hour!AA8=0,"",_cache_day_hour!AA8)</f>
+        <v/>
+      </c>
+      <c r="AA11" s="43" t="str">
         <f>IF(_cache_day_hour!Z8=0,"",_cache_day_hour!Z8)</f>
         <v/>
       </c>
-      <c r="AA11" s="13" t="str">
+      <c r="AB11" s="13" t="str">
         <f>IF(_cache_day_hour!AA8=0,"",_cache_day_hour!AA8)</f>
         <v/>
       </c>
-      <c r="AB11" s="14"/>
-    </row>
-    <row r="12" spans="1:28" ht="15" thickBot="1">
+      <c r="AC11" s="14"/>
+    </row>
+    <row r="12" spans="1:29" ht="15" thickBot="1">
       <c r="A12" s="15">
         <v>0.29166666666666702</v>
       </c>
@@ -2714,19 +2770,23 @@
         <f>IF(_cache_day_hour!Y9=0,"",_cache_day_hour!Y9)</f>
         <v/>
       </c>
-      <c r="Z12" s="44" t="str">
+      <c r="Z12" s="34" t="str">
+        <f>IF(_cache_day_hour!AA9=0,"",_cache_day_hour!AA9)</f>
+        <v/>
+      </c>
+      <c r="AA12" s="44" t="str">
         <f>IF(_cache_day_hour!Z9=0,"",_cache_day_hour!Z9)</f>
         <v/>
       </c>
-      <c r="AA12" s="16" t="str">
+      <c r="AB12" s="16" t="str">
         <f>IF(_cache_day_hour!AA9=0,"",_cache_day_hour!AA9)</f>
         <v/>
       </c>
-      <c r="AB12" s="65" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="13" spans="1:28">
+      <c r="AC12" s="65" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="13" spans="1:29">
       <c r="A13" s="17">
         <v>0.33333333333333298</v>
       </c>
@@ -2826,17 +2886,21 @@
         <f>IF(_cache_day_hour!Y10=0,"",_cache_day_hour!Y10)</f>
         <v/>
       </c>
-      <c r="Z13" s="45" t="str">
+      <c r="Z13" s="34" t="str">
+        <f>IF(_cache_day_hour!AA10=0,"",_cache_day_hour!AA10)</f>
+        <v/>
+      </c>
+      <c r="AA13" s="45" t="str">
         <f>IF(_cache_day_hour!Z10=0,"",_cache_day_hour!Z10)</f>
         <v/>
       </c>
-      <c r="AA13" s="25" t="str">
+      <c r="AB13" s="25" t="str">
         <f>IF(_cache_day_hour!AA10=0,"",_cache_day_hour!AA10)</f>
         <v/>
       </c>
-      <c r="AB13" s="18"/>
-    </row>
-    <row r="14" spans="1:28">
+      <c r="AC13" s="18"/>
+    </row>
+    <row r="14" spans="1:29">
       <c r="A14" s="12">
         <v>0.375</v>
       </c>
@@ -2936,17 +3000,21 @@
         <f>IF(_cache_day_hour!Y11=0,"",_cache_day_hour!Y11)</f>
         <v/>
       </c>
-      <c r="Z14" s="43" t="str">
+      <c r="Z14" s="34" t="str">
+        <f>IF(_cache_day_hour!AA11=0,"",_cache_day_hour!AA11)</f>
+        <v/>
+      </c>
+      <c r="AA14" s="43" t="str">
         <f>IF(_cache_day_hour!Z11=0,"",_cache_day_hour!Z11)</f>
         <v/>
       </c>
-      <c r="AA14" s="13" t="str">
+      <c r="AB14" s="13" t="str">
         <f>IF(_cache_day_hour!AA11=0,"",_cache_day_hour!AA11)</f>
         <v/>
       </c>
-      <c r="AB14" s="14"/>
-    </row>
-    <row r="15" spans="1:28">
+      <c r="AC14" s="14"/>
+    </row>
+    <row r="15" spans="1:29">
       <c r="A15" s="12">
         <v>0.41666666666666702</v>
       </c>
@@ -3046,17 +3114,21 @@
         <f>IF(_cache_day_hour!Y12=0,"",_cache_day_hour!Y12)</f>
         <v/>
       </c>
-      <c r="Z15" s="43" t="str">
+      <c r="Z15" s="34" t="str">
+        <f>IF(_cache_day_hour!AA12=0,"",_cache_day_hour!AA12)</f>
+        <v/>
+      </c>
+      <c r="AA15" s="43" t="str">
         <f>IF(_cache_day_hour!Z12=0,"",_cache_day_hour!Z12)</f>
         <v/>
       </c>
-      <c r="AA15" s="13" t="str">
+      <c r="AB15" s="13" t="str">
         <f>IF(_cache_day_hour!AA12=0,"",_cache_day_hour!AA12)</f>
         <v/>
       </c>
-      <c r="AB15" s="14"/>
-    </row>
-    <row r="16" spans="1:28">
+      <c r="AC15" s="14"/>
+    </row>
+    <row r="16" spans="1:29">
       <c r="A16" s="12">
         <v>0.45833333333333298</v>
       </c>
@@ -3156,17 +3228,21 @@
         <f>IF(_cache_day_hour!Y13=0,"",_cache_day_hour!Y13)</f>
         <v/>
       </c>
-      <c r="Z16" s="43" t="str">
+      <c r="Z16" s="34" t="str">
+        <f>IF(_cache_day_hour!AA13=0,"",_cache_day_hour!AA13)</f>
+        <v/>
+      </c>
+      <c r="AA16" s="43" t="str">
         <f>IF(_cache_day_hour!Z13=0,"",_cache_day_hour!Z13)</f>
         <v/>
       </c>
-      <c r="AA16" s="13" t="str">
+      <c r="AB16" s="13" t="str">
         <f>IF(_cache_day_hour!AA13=0,"",_cache_day_hour!AA13)</f>
         <v/>
       </c>
-      <c r="AB16" s="14"/>
-    </row>
-    <row r="17" spans="1:28">
+      <c r="AC16" s="14"/>
+    </row>
+    <row r="17" spans="1:29">
       <c r="A17" s="12">
         <v>0.5</v>
       </c>
@@ -3266,17 +3342,21 @@
         <f>IF(_cache_day_hour!Y14=0,"",_cache_day_hour!Y14)</f>
         <v/>
       </c>
-      <c r="Z17" s="43" t="str">
+      <c r="Z17" s="34" t="str">
+        <f>IF(_cache_day_hour!AA14=0,"",_cache_day_hour!AA14)</f>
+        <v/>
+      </c>
+      <c r="AA17" s="43" t="str">
         <f>IF(_cache_day_hour!Z14=0,"",_cache_day_hour!Z14)</f>
         <v/>
       </c>
-      <c r="AA17" s="13" t="str">
+      <c r="AB17" s="13" t="str">
         <f>IF(_cache_day_hour!AA14=0,"",_cache_day_hour!AA14)</f>
         <v/>
       </c>
-      <c r="AB17" s="14"/>
-    </row>
-    <row r="18" spans="1:28">
+      <c r="AC17" s="14"/>
+    </row>
+    <row r="18" spans="1:29">
       <c r="A18" s="12">
         <v>0.54166666666666696</v>
       </c>
@@ -3376,17 +3456,21 @@
         <f>IF(_cache_day_hour!Y15=0,"",_cache_day_hour!Y15)</f>
         <v/>
       </c>
-      <c r="Z18" s="43" t="str">
+      <c r="Z18" s="34" t="str">
+        <f>IF(_cache_day_hour!AA15=0,"",_cache_day_hour!AA15)</f>
+        <v/>
+      </c>
+      <c r="AA18" s="43" t="str">
         <f>IF(_cache_day_hour!Z15=0,"",_cache_day_hour!Z15)</f>
         <v/>
       </c>
-      <c r="AA18" s="13" t="str">
+      <c r="AB18" s="13" t="str">
         <f>IF(_cache_day_hour!AA15=0,"",_cache_day_hour!AA15)</f>
         <v/>
       </c>
-      <c r="AB18" s="14"/>
-    </row>
-    <row r="19" spans="1:28">
+      <c r="AC18" s="14"/>
+    </row>
+    <row r="19" spans="1:29">
       <c r="A19" s="12">
         <v>0.58333333333333304</v>
       </c>
@@ -3486,17 +3570,21 @@
         <f>IF(_cache_day_hour!Y16=0,"",_cache_day_hour!Y16)</f>
         <v/>
       </c>
-      <c r="Z19" s="43" t="str">
+      <c r="Z19" s="34" t="str">
+        <f>IF(_cache_day_hour!AA16=0,"",_cache_day_hour!AA16)</f>
+        <v/>
+      </c>
+      <c r="AA19" s="43" t="str">
         <f>IF(_cache_day_hour!Z16=0,"",_cache_day_hour!Z16)</f>
         <v/>
       </c>
-      <c r="AA19" s="13" t="str">
+      <c r="AB19" s="13" t="str">
         <f>IF(_cache_day_hour!AA16=0,"",_cache_day_hour!AA16)</f>
         <v/>
       </c>
-      <c r="AB19" s="14"/>
-    </row>
-    <row r="20" spans="1:28" ht="15" thickBot="1">
+      <c r="AC19" s="14"/>
+    </row>
+    <row r="20" spans="1:29" ht="15" thickBot="1">
       <c r="A20" s="15">
         <v>0.625</v>
       </c>
@@ -3596,19 +3684,23 @@
         <f>IF(_cache_day_hour!Y17=0,"",_cache_day_hour!Y17)</f>
         <v/>
       </c>
-      <c r="Z20" s="44" t="str">
+      <c r="Z20" s="34" t="str">
+        <f>IF(_cache_day_hour!AA17=0,"",_cache_day_hour!AA17)</f>
+        <v/>
+      </c>
+      <c r="AA20" s="44" t="str">
         <f>IF(_cache_day_hour!Z17=0,"",_cache_day_hour!Z17)</f>
         <v/>
       </c>
-      <c r="AA20" s="16" t="str">
+      <c r="AB20" s="16" t="str">
         <f>IF(_cache_day_hour!AA17=0,"",_cache_day_hour!AA17)</f>
         <v/>
       </c>
-      <c r="AB20" s="66" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="21" spans="1:28">
+      <c r="AC20" s="66" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="21" spans="1:29">
       <c r="A21" s="17">
         <v>0.66666666666666696</v>
       </c>
@@ -3708,17 +3800,21 @@
         <f>IF(_cache_day_hour!Y18=0,"",_cache_day_hour!Y18)</f>
         <v/>
       </c>
-      <c r="Z21" s="46" t="str">
+      <c r="Z21" s="34" t="str">
+        <f>IF(_cache_day_hour!AA18=0,"",_cache_day_hour!AA18)</f>
+        <v/>
+      </c>
+      <c r="AA21" s="46" t="str">
         <f>IF(_cache_day_hour!Z18=0,"",_cache_day_hour!Z18)</f>
         <v/>
       </c>
-      <c r="AA21" s="19" t="str">
+      <c r="AB21" s="19" t="str">
         <f>IF(_cache_day_hour!AA18=0,"",_cache_day_hour!AA18)</f>
         <v/>
       </c>
-      <c r="AB21" s="14"/>
-    </row>
-    <row r="22" spans="1:28">
+      <c r="AC21" s="14"/>
+    </row>
+    <row r="22" spans="1:29">
       <c r="A22" s="12">
         <v>0.70833333333333304</v>
       </c>
@@ -3818,17 +3914,21 @@
         <f>IF(_cache_day_hour!Y19=0,"",_cache_day_hour!Y19)</f>
         <v/>
       </c>
-      <c r="Z22" s="43" t="str">
+      <c r="Z22" s="34" t="str">
+        <f>IF(_cache_day_hour!AA19=0,"",_cache_day_hour!AA19)</f>
+        <v/>
+      </c>
+      <c r="AA22" s="43" t="str">
         <f>IF(_cache_day_hour!Z19=0,"",_cache_day_hour!Z19)</f>
         <v/>
       </c>
-      <c r="AA22" s="13" t="str">
+      <c r="AB22" s="13" t="str">
         <f>IF(_cache_day_hour!AA19=0,"",_cache_day_hour!AA19)</f>
         <v/>
       </c>
-      <c r="AB22" s="14"/>
-    </row>
-    <row r="23" spans="1:28">
+      <c r="AC22" s="14"/>
+    </row>
+    <row r="23" spans="1:29">
       <c r="A23" s="12">
         <v>0.75</v>
       </c>
@@ -3928,17 +4028,21 @@
         <f>IF(_cache_day_hour!Y20=0,"",_cache_day_hour!Y20)</f>
         <v/>
       </c>
-      <c r="Z23" s="43" t="str">
+      <c r="Z23" s="34" t="str">
+        <f>IF(_cache_day_hour!AA20=0,"",_cache_day_hour!AA20)</f>
+        <v/>
+      </c>
+      <c r="AA23" s="43" t="str">
         <f>IF(_cache_day_hour!Z20=0,"",_cache_day_hour!Z20)</f>
         <v/>
       </c>
-      <c r="AA23" s="13" t="str">
+      <c r="AB23" s="13" t="str">
         <f>IF(_cache_day_hour!AA20=0,"",_cache_day_hour!AA20)</f>
         <v/>
       </c>
-      <c r="AB23" s="14"/>
-    </row>
-    <row r="24" spans="1:28">
+      <c r="AC23" s="14"/>
+    </row>
+    <row r="24" spans="1:29">
       <c r="A24" s="12">
         <v>0.79166666666666696</v>
       </c>
@@ -4038,17 +4142,21 @@
         <f>IF(_cache_day_hour!Y21=0,"",_cache_day_hour!Y21)</f>
         <v/>
       </c>
-      <c r="Z24" s="43" t="str">
+      <c r="Z24" s="34" t="str">
+        <f>IF(_cache_day_hour!AA21=0,"",_cache_day_hour!AA21)</f>
+        <v/>
+      </c>
+      <c r="AA24" s="43" t="str">
         <f>IF(_cache_day_hour!Z21=0,"",_cache_day_hour!Z21)</f>
         <v/>
       </c>
-      <c r="AA24" s="13" t="str">
+      <c r="AB24" s="13" t="str">
         <f>IF(_cache_day_hour!AA21=0,"",_cache_day_hour!AA21)</f>
         <v/>
       </c>
-      <c r="AB24" s="14"/>
-    </row>
-    <row r="25" spans="1:28">
+      <c r="AC24" s="14"/>
+    </row>
+    <row r="25" spans="1:29">
       <c r="A25" s="12">
         <v>0.83333333333333304</v>
       </c>
@@ -4148,17 +4256,21 @@
         <f>IF(_cache_day_hour!Y22=0,"",_cache_day_hour!Y22)</f>
         <v/>
       </c>
-      <c r="Z25" s="43" t="str">
+      <c r="Z25" s="34" t="str">
+        <f>IF(_cache_day_hour!AA22=0,"",_cache_day_hour!AA22)</f>
+        <v/>
+      </c>
+      <c r="AA25" s="43" t="str">
         <f>IF(_cache_day_hour!Z22=0,"",_cache_day_hour!Z22)</f>
         <v/>
       </c>
-      <c r="AA25" s="13" t="str">
+      <c r="AB25" s="13" t="str">
         <f>IF(_cache_day_hour!AA22=0,"",_cache_day_hour!AA22)</f>
         <v/>
       </c>
-      <c r="AB25" s="14"/>
-    </row>
-    <row r="26" spans="1:28">
+      <c r="AC25" s="14"/>
+    </row>
+    <row r="26" spans="1:29">
       <c r="A26" s="12">
         <v>0.875</v>
       </c>
@@ -4258,17 +4370,21 @@
         <f>IF(_cache_day_hour!Y23=0,"",_cache_day_hour!Y23)</f>
         <v/>
       </c>
-      <c r="Z26" s="43" t="str">
+      <c r="Z26" s="34" t="str">
+        <f>IF(_cache_day_hour!AA23=0,"",_cache_day_hour!AA23)</f>
+        <v/>
+      </c>
+      <c r="AA26" s="43" t="str">
         <f>IF(_cache_day_hour!Z23=0,"",_cache_day_hour!Z23)</f>
         <v/>
       </c>
-      <c r="AA26" s="13" t="str">
+      <c r="AB26" s="13" t="str">
         <f>IF(_cache_day_hour!AA23=0,"",_cache_day_hour!AA23)</f>
         <v/>
       </c>
-      <c r="AB26" s="14"/>
-    </row>
-    <row r="27" spans="1:28">
+      <c r="AC26" s="14"/>
+    </row>
+    <row r="27" spans="1:29">
       <c r="A27" s="12">
         <v>0.91666666666666696</v>
       </c>
@@ -4368,17 +4484,21 @@
         <f>IF(_cache_day_hour!Y24=0,"",_cache_day_hour!Y24)</f>
         <v/>
       </c>
-      <c r="Z27" s="43" t="str">
+      <c r="Z27" s="34" t="str">
+        <f>IF(_cache_day_hour!AA24=0,"",_cache_day_hour!AA24)</f>
+        <v/>
+      </c>
+      <c r="AA27" s="43" t="str">
         <f>IF(_cache_day_hour!Z24=0,"",_cache_day_hour!Z24)</f>
         <v/>
       </c>
-      <c r="AA27" s="13" t="str">
+      <c r="AB27" s="13" t="str">
         <f>IF(_cache_day_hour!AA24=0,"",_cache_day_hour!AA24)</f>
         <v/>
       </c>
-      <c r="AB27" s="14"/>
-    </row>
-    <row r="28" spans="1:28" ht="15" thickBot="1">
+      <c r="AC27" s="14"/>
+    </row>
+    <row r="28" spans="1:29" ht="15" thickBot="1">
       <c r="A28" s="12">
         <v>0.95833333333333304</v>
       </c>
@@ -4478,25 +4598,29 @@
         <f>IF(_cache_day_hour!Y25=0,"",_cache_day_hour!Y25)</f>
         <v/>
       </c>
-      <c r="Z28" s="43" t="str">
+      <c r="Z28" s="34" t="str">
+        <f>IF(_cache_day_hour!AA25=0,"",_cache_day_hour!AA25)</f>
+        <v/>
+      </c>
+      <c r="AA28" s="43" t="str">
         <f>IF(_cache_day_hour!Z25=0,"",_cache_day_hour!Z25)</f>
         <v/>
       </c>
-      <c r="AA28" s="13" t="str">
+      <c r="AB28" s="13" t="str">
         <f>IF(_cache_day_hour!AA25=0,"",_cache_day_hour!AA25)</f>
         <v/>
       </c>
-      <c r="AB28" s="66" t="s">
+      <c r="AC28" s="66" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="29" spans="1:29" ht="15">
+      <c r="A29" s="7" t="s">
         <v>60</v>
-      </c>
-    </row>
-    <row r="29" spans="1:28" ht="15">
-      <c r="A29" s="7" t="s">
-        <v>61</v>
       </c>
       <c r="B29" s="31"/>
       <c r="C29" s="20">
-        <f t="shared" ref="C29:AA29" si="0">IF(ISERROR(AVERAGE(C5:C28))=FALSE,AVERAGE(C5:C28),)</f>
+        <f t="shared" ref="C29:AB29" si="0">IF(ISERROR(AVERAGE(C5:C28))=FALSE,AVERAGE(C5:C28),)</f>
         <v>0</v>
       </c>
       <c r="D29" s="20">
@@ -4587,553 +4711,580 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="Z29" s="47">
+      <c r="Z29" s="58">
+        <f t="shared" ref="Z29" si="1">IF(ISERROR(AVERAGE(Z5:Z28))=FALSE,AVERAGE(Z5:Z28),)</f>
+        <v>0</v>
+      </c>
+      <c r="AA29" s="47">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="AA29" s="20">
+      <c r="AB29" s="20">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="AB29" s="21"/>
-    </row>
-    <row r="30" spans="1:28" ht="15">
+      <c r="AC29" s="21"/>
+    </row>
+    <row r="30" spans="1:29" ht="15">
       <c r="A30" s="8" t="s">
         <v>4</v>
       </c>
       <c r="C30" s="22">
-        <f t="shared" ref="C30:AA30" si="1">MAX(C5:C28)</f>
+        <f t="shared" ref="C30:AB30" si="2">MAX(C5:C28)</f>
         <v>0</v>
       </c>
       <c r="D30" s="22">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="E30" s="22">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="F30" s="22">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="G30" s="22">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="H30" s="22">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="I30" s="22">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="J30" s="22">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="K30" s="22">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="L30" s="22">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="M30" s="22">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="N30" s="22">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="O30" s="22">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="P30" s="22">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="Q30" s="22">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="R30" s="22">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="S30" s="63">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="T30" s="63">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="U30" s="63">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="V30" s="63">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="W30" s="48">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="X30" s="56">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="Y30" s="59">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="Z30" s="48">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="AA30" s="22">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="AB30" s="21"/>
-    </row>
-    <row r="31" spans="1:28" ht="15">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="Z30" s="59">
+        <f t="shared" ref="Z30" si="3">MAX(Z5:Z28)</f>
+        <v>0</v>
+      </c>
+      <c r="AA30" s="48">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="AB30" s="22">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="AC30" s="21"/>
+    </row>
+    <row r="31" spans="1:29" ht="15">
       <c r="A31" s="8" t="s">
         <v>5</v>
       </c>
       <c r="C31" s="22">
-        <f t="shared" ref="C31:Z31" si="2">MIN(C5:C28)</f>
+        <f t="shared" ref="C31:AA31" si="4">MIN(C5:C28)</f>
         <v>0</v>
       </c>
       <c r="D31" s="22">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="E31" s="22">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="F31" s="22">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="G31" s="22">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="H31" s="22">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="I31" s="22">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="J31" s="22">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="K31" s="22">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="L31" s="22">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="M31" s="22">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="N31" s="22">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="O31" s="22">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="P31" s="22">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="Q31" s="22">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="R31" s="22">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="S31" s="63">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="T31" s="63">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="U31" s="63">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="V31" s="63">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="W31" s="48">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="X31" s="56">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="Y31" s="59">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="Z31" s="48">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="AA31" s="22">
-        <f>MAX(AA6:AA29)</f>
-        <v>0</v>
-      </c>
-      <c r="AB31" s="21"/>
-    </row>
-    <row r="32" spans="1:28">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="Z31" s="59">
+        <f t="shared" ref="Z31" si="5">MIN(Z5:Z28)</f>
+        <v>0</v>
+      </c>
+      <c r="AA31" s="48">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="AB31" s="22">
+        <f>MAX(AB6:AB29)</f>
+        <v>0</v>
+      </c>
+      <c r="AC31" s="21"/>
+    </row>
+    <row r="32" spans="1:29">
       <c r="A32" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="C32" s="22">
+        <f t="shared" ref="C32:AA32" si="6">IF(ISERROR(AVERAGE(C5:C12))=FALSE,AVERAGE(C5:C12),)</f>
+        <v>0</v>
+      </c>
+      <c r="D32" s="22">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="E32" s="22">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="F32" s="22">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="G32" s="22">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="H32" s="22">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="I32" s="22">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="J32" s="22">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="K32" s="22">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="L32" s="22">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="M32" s="22">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="N32" s="22">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="O32" s="22">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="P32" s="22">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="Q32" s="22">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="R32" s="22">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="S32" s="63">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="T32" s="63">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="U32" s="63">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="V32" s="63">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="W32" s="48">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="X32" s="56">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="Y32" s="59">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="Z32" s="59">
+        <f t="shared" ref="Z32" si="7">IF(ISERROR(AVERAGE(Z5:Z12))=FALSE,AVERAGE(Z5:Z12),)</f>
+        <v>0</v>
+      </c>
+      <c r="AA32" s="48">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="AB32" s="22">
+        <f>MAX(AB7:AB30)</f>
+        <v>0</v>
+      </c>
+      <c r="AC32" s="21"/>
+    </row>
+    <row r="33" spans="1:29">
+      <c r="A33" s="9" t="s">
         <v>62</v>
       </c>
-      <c r="C32" s="22">
-        <f t="shared" ref="C32:Z32" si="3">IF(ISERROR(AVERAGE(C5:C12))=FALSE,AVERAGE(C5:C12),)</f>
-        <v>0</v>
-      </c>
-      <c r="D32" s="22">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="E32" s="22">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="F32" s="22">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="G32" s="22">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="H32" s="22">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="I32" s="22">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="J32" s="22">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="K32" s="22">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="L32" s="22">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="M32" s="22">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="N32" s="22">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="O32" s="22">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="P32" s="22">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="Q32" s="22">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="R32" s="22">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="S32" s="63">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="T32" s="63">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="U32" s="63">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="V32" s="63">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="W32" s="48">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="X32" s="56">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="Y32" s="59">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="Z32" s="48">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="AA32" s="22">
-        <f>MAX(AA7:AA30)</f>
-        <v>0</v>
-      </c>
-      <c r="AB32" s="21"/>
-    </row>
-    <row r="33" spans="1:28">
-      <c r="A33" s="9" t="s">
+      <c r="C33" s="22">
+        <f t="shared" ref="C33:AA33" si="8">IF(ISERROR(AVERAGE(C13:C20))=FALSE,AVERAGE(C13:C20),)</f>
+        <v>0</v>
+      </c>
+      <c r="D33" s="22">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="E33" s="22">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="F33" s="22">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="G33" s="22">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="H33" s="22">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="I33" s="22">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="J33" s="22">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="K33" s="22">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="L33" s="22">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="M33" s="22">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="N33" s="22">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="O33" s="22">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="P33" s="22">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="Q33" s="22">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="R33" s="22">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="S33" s="63">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="T33" s="63">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="U33" s="63">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="V33" s="63">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="W33" s="48">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="X33" s="56">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="Y33" s="59">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="Z33" s="59">
+        <f t="shared" ref="Z33" si="9">IF(ISERROR(AVERAGE(Z13:Z20))=FALSE,AVERAGE(Z13:Z20),)</f>
+        <v>0</v>
+      </c>
+      <c r="AA33" s="48">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="AB33" s="22">
+        <f>MAX(AB8:AB31)</f>
+        <v>0</v>
+      </c>
+      <c r="AC33" s="21"/>
+    </row>
+    <row r="34" spans="1:29" ht="15" thickBot="1">
+      <c r="A34" s="10" t="s">
         <v>63</v>
-      </c>
-      <c r="C33" s="22">
-        <f t="shared" ref="C33:Z33" si="4">IF(ISERROR(AVERAGE(C13:C20))=FALSE,AVERAGE(C13:C20),)</f>
-        <v>0</v>
-      </c>
-      <c r="D33" s="22">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="E33" s="22">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="F33" s="22">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="G33" s="22">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="H33" s="22">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="I33" s="22">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="J33" s="22">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="K33" s="22">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="L33" s="22">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="M33" s="22">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="N33" s="22">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="O33" s="22">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="P33" s="22">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="Q33" s="22">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="R33" s="22">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="S33" s="63">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="T33" s="63">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="U33" s="63">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="V33" s="63">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="W33" s="48">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="X33" s="56">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="Y33" s="59">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="Z33" s="48">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="AA33" s="22">
-        <f>MAX(AA8:AA31)</f>
-        <v>0</v>
-      </c>
-      <c r="AB33" s="21"/>
-    </row>
-    <row r="34" spans="1:28" ht="15" thickBot="1">
-      <c r="A34" s="10" t="s">
-        <v>64</v>
       </c>
       <c r="B34" s="33"/>
       <c r="C34" s="23">
-        <f t="shared" ref="C34:AA34" si="5">IF(ISERROR(AVERAGE(C21:C28))=FALSE,AVERAGE(C21:C28),)</f>
+        <f t="shared" ref="C34:AB34" si="10">IF(ISERROR(AVERAGE(C21:C28))=FALSE,AVERAGE(C21:C28),)</f>
         <v>0</v>
       </c>
       <c r="D34" s="23">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="E34" s="23">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="F34" s="23">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="G34" s="23">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="H34" s="23">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="I34" s="23">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="J34" s="23">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="K34" s="23">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="L34" s="23">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="M34" s="23">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="N34" s="23">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="O34" s="23">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="P34" s="23">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="Q34" s="23">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="R34" s="23">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="S34" s="64">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="T34" s="64">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="U34" s="64">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="V34" s="64">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="W34" s="49">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="X34" s="57">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="Y34" s="60">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="Z34" s="49">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="AA34" s="23">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="AB34" s="24"/>
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="Z34" s="60">
+        <f t="shared" ref="Z34" si="11">IF(ISERROR(AVERAGE(Z21:Z28))=FALSE,AVERAGE(Z21:Z28),)</f>
+        <v>0</v>
+      </c>
+      <c r="AA34" s="49">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="AB34" s="23">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="AC34" s="24"/>
     </row>
   </sheetData>
-  <mergeCells count="18">
+  <mergeCells count="19">
+    <mergeCell ref="U2:U3"/>
+    <mergeCell ref="V2:V3"/>
+    <mergeCell ref="Z2:Z3"/>
     <mergeCell ref="W2:W3"/>
     <mergeCell ref="X2:X3"/>
     <mergeCell ref="Y2:Y3"/>
-    <mergeCell ref="A1:AB1"/>
+    <mergeCell ref="A1:AC1"/>
     <mergeCell ref="A2:A3"/>
     <mergeCell ref="C2:D2"/>
     <mergeCell ref="E2:F2"/>
@@ -5142,12 +5293,10 @@
     <mergeCell ref="K2:L2"/>
     <mergeCell ref="M2:R2"/>
     <mergeCell ref="S2:S3"/>
-    <mergeCell ref="Z2:Z3"/>
     <mergeCell ref="AA2:AA3"/>
     <mergeCell ref="AB2:AB3"/>
+    <mergeCell ref="AC2:AC3"/>
     <mergeCell ref="T2:T3"/>
-    <mergeCell ref="U2:U3"/>
-    <mergeCell ref="V2:V3"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5175,7 +5324,7 @@
   <sheetData>
     <row r="1" spans="1:8" ht="22.5">
       <c r="A1" s="97" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B1" s="97"/>
       <c r="C1" s="97"/>
@@ -5187,40 +5336,40 @@
     </row>
     <row r="2" spans="1:8" ht="20.25">
       <c r="A2" s="70" t="s">
+        <v>68</v>
+      </c>
+      <c r="B2" s="67" t="s">
         <v>69</v>
       </c>
-      <c r="B2" s="67" t="s">
+      <c r="C2" s="67" t="s">
         <v>70</v>
       </c>
-      <c r="C2" s="67" t="s">
+      <c r="D2" s="72" t="s">
         <v>71</v>
       </c>
-      <c r="D2" s="72" t="s">
+      <c r="E2" s="72" t="s">
         <v>72</v>
       </c>
-      <c r="E2" s="72" t="s">
+      <c r="F2" s="75" t="s">
         <v>73</v>
       </c>
-      <c r="F2" s="75" t="s">
+      <c r="G2" s="72" t="s">
         <v>74</v>
       </c>
-      <c r="G2" s="72" t="s">
+      <c r="H2" s="72" t="s">
         <v>75</v>
-      </c>
-      <c r="H2" s="72" t="s">
-        <v>76</v>
       </c>
     </row>
     <row r="3" spans="1:8">
       <c r="A3" s="95">
         <f ca="1">IF(_metadata!B22="",EOMONTH(NOW(),-1)+1,_metadata!B22)</f>
-        <v>43647</v>
+        <v>43678</v>
       </c>
       <c r="B3" s="96" t="s">
+        <v>76</v>
+      </c>
+      <c r="C3" s="68" t="s">
         <v>77</v>
-      </c>
-      <c r="C3" s="68" t="s">
-        <v>78</v>
       </c>
       <c r="D3" s="73" t="str">
         <f>IF(_temp!D3=0,"",_temp!D3)</f>
@@ -5247,7 +5396,7 @@
       <c r="A4" s="95"/>
       <c r="B4" s="96"/>
       <c r="C4" s="68" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D4" s="73" t="str">
         <f>IF(_temp!D4=0,"",_temp!D4)</f>
@@ -5273,10 +5422,10 @@
     <row r="5" spans="1:8">
       <c r="A5" s="95"/>
       <c r="B5" s="96" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C5" s="68" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D5" s="73" t="str">
         <f>IF(_temp!D5=0,"",_temp!D5)</f>
@@ -5303,7 +5452,7 @@
       <c r="A6" s="95"/>
       <c r="B6" s="96"/>
       <c r="C6" s="68" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D6" s="73" t="str">
         <f>IF(_temp!D6=0,"",_temp!D6)</f>
@@ -5329,10 +5478,10 @@
     <row r="7" spans="1:8">
       <c r="A7" s="95"/>
       <c r="B7" s="96" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C7" s="68" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D7" s="73" t="str">
         <f>IF(_temp!D7=0,"",_temp!D7)</f>
@@ -5359,7 +5508,7 @@
       <c r="A8" s="95"/>
       <c r="B8" s="96"/>
       <c r="C8" s="68" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D8" s="73" t="str">
         <f>IF(_temp!D8=0,"",_temp!D8)</f>
@@ -5385,13 +5534,13 @@
     <row r="9" spans="1:8">
       <c r="A9" s="95">
         <f ca="1">A3+1</f>
-        <v>43648</v>
+        <v>43679</v>
       </c>
       <c r="B9" s="96" t="s">
+        <v>76</v>
+      </c>
+      <c r="C9" s="68" t="s">
         <v>77</v>
-      </c>
-      <c r="C9" s="68" t="s">
-        <v>78</v>
       </c>
       <c r="D9" s="73" t="str">
         <f>IF(_temp!D9=0,"",_temp!D9)</f>
@@ -5418,7 +5567,7 @@
       <c r="A10" s="95"/>
       <c r="B10" s="96"/>
       <c r="C10" s="68" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D10" s="73" t="str">
         <f>IF(_temp!D10=0,"",_temp!D10)</f>
@@ -5444,10 +5593,10 @@
     <row r="11" spans="1:8">
       <c r="A11" s="95"/>
       <c r="B11" s="96" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C11" s="68" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D11" s="73" t="str">
         <f>IF(_temp!D11=0,"",_temp!D11)</f>
@@ -5474,7 +5623,7 @@
       <c r="A12" s="95"/>
       <c r="B12" s="96"/>
       <c r="C12" s="68" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D12" s="73" t="str">
         <f>IF(_temp!D12=0,"",_temp!D12)</f>
@@ -5500,10 +5649,10 @@
     <row r="13" spans="1:8">
       <c r="A13" s="95"/>
       <c r="B13" s="96" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C13" s="68" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D13" s="73" t="str">
         <f>IF(_temp!D13=0,"",_temp!D13)</f>
@@ -5530,7 +5679,7 @@
       <c r="A14" s="95"/>
       <c r="B14" s="96"/>
       <c r="C14" s="68" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D14" s="73" t="str">
         <f>IF(_temp!D14=0,"",_temp!D14)</f>
@@ -5556,13 +5705,13 @@
     <row r="15" spans="1:8">
       <c r="A15" s="95">
         <f t="shared" ref="A15" ca="1" si="0">A9+1</f>
-        <v>43649</v>
+        <v>43680</v>
       </c>
       <c r="B15" s="96" t="s">
+        <v>76</v>
+      </c>
+      <c r="C15" s="68" t="s">
         <v>77</v>
-      </c>
-      <c r="C15" s="68" t="s">
-        <v>78</v>
       </c>
       <c r="D15" s="73" t="str">
         <f>IF(_temp!D15=0,"",_temp!D15)</f>
@@ -5589,7 +5738,7 @@
       <c r="A16" s="95"/>
       <c r="B16" s="96"/>
       <c r="C16" s="68" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D16" s="73" t="str">
         <f>IF(_temp!D16=0,"",_temp!D16)</f>
@@ -5615,10 +5764,10 @@
     <row r="17" spans="1:8">
       <c r="A17" s="95"/>
       <c r="B17" s="96" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C17" s="68" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D17" s="73" t="str">
         <f>IF(_temp!D17=0,"",_temp!D17)</f>
@@ -5645,7 +5794,7 @@
       <c r="A18" s="95"/>
       <c r="B18" s="96"/>
       <c r="C18" s="68" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D18" s="73" t="str">
         <f>IF(_temp!D18=0,"",_temp!D18)</f>
@@ -5671,10 +5820,10 @@
     <row r="19" spans="1:8">
       <c r="A19" s="95"/>
       <c r="B19" s="96" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C19" s="68" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D19" s="73" t="str">
         <f>IF(_temp!D19=0,"",_temp!D19)</f>
@@ -5701,7 +5850,7 @@
       <c r="A20" s="95"/>
       <c r="B20" s="96"/>
       <c r="C20" s="68" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D20" s="73" t="str">
         <f>IF(_temp!D20=0,"",_temp!D20)</f>
@@ -5727,13 +5876,13 @@
     <row r="21" spans="1:8">
       <c r="A21" s="95">
         <f t="shared" ref="A21" ca="1" si="1">A15+1</f>
-        <v>43650</v>
+        <v>43681</v>
       </c>
       <c r="B21" s="96" t="s">
+        <v>76</v>
+      </c>
+      <c r="C21" s="68" t="s">
         <v>77</v>
-      </c>
-      <c r="C21" s="68" t="s">
-        <v>78</v>
       </c>
       <c r="D21" s="73" t="str">
         <f>IF(_temp!D21=0,"",_temp!D21)</f>
@@ -5760,7 +5909,7 @@
       <c r="A22" s="95"/>
       <c r="B22" s="96"/>
       <c r="C22" s="68" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D22" s="73" t="str">
         <f>IF(_temp!D22=0,"",_temp!D22)</f>
@@ -5786,10 +5935,10 @@
     <row r="23" spans="1:8">
       <c r="A23" s="95"/>
       <c r="B23" s="96" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C23" s="68" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D23" s="73" t="str">
         <f>IF(_temp!D23=0,"",_temp!D23)</f>
@@ -5816,7 +5965,7 @@
       <c r="A24" s="95"/>
       <c r="B24" s="96"/>
       <c r="C24" s="68" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D24" s="73" t="str">
         <f>IF(_temp!D24=0,"",_temp!D24)</f>
@@ -5842,10 +5991,10 @@
     <row r="25" spans="1:8">
       <c r="A25" s="95"/>
       <c r="B25" s="96" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C25" s="68" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D25" s="73" t="str">
         <f>IF(_temp!D25=0,"",_temp!D25)</f>
@@ -5872,7 +6021,7 @@
       <c r="A26" s="95"/>
       <c r="B26" s="96"/>
       <c r="C26" s="68" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D26" s="73" t="str">
         <f>IF(_temp!D26=0,"",_temp!D26)</f>
@@ -5898,13 +6047,13 @@
     <row r="27" spans="1:8">
       <c r="A27" s="95">
         <f t="shared" ref="A27:A87" ca="1" si="2">A21+1</f>
-        <v>43651</v>
+        <v>43682</v>
       </c>
       <c r="B27" s="96" t="s">
+        <v>76</v>
+      </c>
+      <c r="C27" s="68" t="s">
         <v>77</v>
-      </c>
-      <c r="C27" s="68" t="s">
-        <v>78</v>
       </c>
       <c r="D27" s="73" t="str">
         <f>IF(_temp!D27=0,"",_temp!D27)</f>
@@ -5931,7 +6080,7 @@
       <c r="A28" s="95"/>
       <c r="B28" s="96"/>
       <c r="C28" s="68" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D28" s="73" t="str">
         <f>IF(_temp!D28=0,"",_temp!D28)</f>
@@ -5957,10 +6106,10 @@
     <row r="29" spans="1:8">
       <c r="A29" s="95"/>
       <c r="B29" s="96" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C29" s="68" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D29" s="73" t="str">
         <f>IF(_temp!D29=0,"",_temp!D29)</f>
@@ -5987,7 +6136,7 @@
       <c r="A30" s="95"/>
       <c r="B30" s="96"/>
       <c r="C30" s="68" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D30" s="73" t="str">
         <f>IF(_temp!D30=0,"",_temp!D30)</f>
@@ -6013,10 +6162,10 @@
     <row r="31" spans="1:8">
       <c r="A31" s="95"/>
       <c r="B31" s="96" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C31" s="68" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D31" s="73" t="str">
         <f>IF(_temp!D31=0,"",_temp!D31)</f>
@@ -6043,7 +6192,7 @@
       <c r="A32" s="95"/>
       <c r="B32" s="96"/>
       <c r="C32" s="68" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D32" s="73" t="str">
         <f>IF(_temp!D32=0,"",_temp!D32)</f>
@@ -6069,13 +6218,13 @@
     <row r="33" spans="1:8">
       <c r="A33" s="95">
         <f t="shared" ref="A33:A93" ca="1" si="3">A27+1</f>
-        <v>43652</v>
+        <v>43683</v>
       </c>
       <c r="B33" s="96" t="s">
+        <v>76</v>
+      </c>
+      <c r="C33" s="68" t="s">
         <v>77</v>
-      </c>
-      <c r="C33" s="68" t="s">
-        <v>78</v>
       </c>
       <c r="D33" s="73" t="str">
         <f>IF(_temp!D33=0,"",_temp!D33)</f>
@@ -6102,7 +6251,7 @@
       <c r="A34" s="95"/>
       <c r="B34" s="96"/>
       <c r="C34" s="68" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D34" s="73" t="str">
         <f>IF(_temp!D34=0,"",_temp!D34)</f>
@@ -6128,10 +6277,10 @@
     <row r="35" spans="1:8">
       <c r="A35" s="95"/>
       <c r="B35" s="96" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C35" s="68" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D35" s="73" t="str">
         <f>IF(_temp!D35=0,"",_temp!D35)</f>
@@ -6158,7 +6307,7 @@
       <c r="A36" s="95"/>
       <c r="B36" s="96"/>
       <c r="C36" s="68" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D36" s="73" t="str">
         <f>IF(_temp!D36=0,"",_temp!D36)</f>
@@ -6184,10 +6333,10 @@
     <row r="37" spans="1:8">
       <c r="A37" s="95"/>
       <c r="B37" s="96" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C37" s="68" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D37" s="73" t="str">
         <f>IF(_temp!D37=0,"",_temp!D37)</f>
@@ -6214,7 +6363,7 @@
       <c r="A38" s="95"/>
       <c r="B38" s="96"/>
       <c r="C38" s="68" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D38" s="73" t="str">
         <f>IF(_temp!D38=0,"",_temp!D38)</f>
@@ -6240,13 +6389,13 @@
     <row r="39" spans="1:8">
       <c r="A39" s="95">
         <f t="shared" ca="1" si="2"/>
-        <v>43653</v>
+        <v>43684</v>
       </c>
       <c r="B39" s="96" t="s">
+        <v>76</v>
+      </c>
+      <c r="C39" s="68" t="s">
         <v>77</v>
-      </c>
-      <c r="C39" s="68" t="s">
-        <v>78</v>
       </c>
       <c r="D39" s="73" t="str">
         <f>IF(_temp!D39=0,"",_temp!D39)</f>
@@ -6273,7 +6422,7 @@
       <c r="A40" s="95"/>
       <c r="B40" s="96"/>
       <c r="C40" s="68" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D40" s="73" t="str">
         <f>IF(_temp!D40=0,"",_temp!D40)</f>
@@ -6299,10 +6448,10 @@
     <row r="41" spans="1:8">
       <c r="A41" s="95"/>
       <c r="B41" s="96" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C41" s="68" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D41" s="73" t="str">
         <f>IF(_temp!D41=0,"",_temp!D41)</f>
@@ -6329,7 +6478,7 @@
       <c r="A42" s="95"/>
       <c r="B42" s="96"/>
       <c r="C42" s="68" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D42" s="73" t="str">
         <f>IF(_temp!D42=0,"",_temp!D42)</f>
@@ -6355,10 +6504,10 @@
     <row r="43" spans="1:8">
       <c r="A43" s="95"/>
       <c r="B43" s="96" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C43" s="68" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D43" s="73" t="str">
         <f>IF(_temp!D43=0,"",_temp!D43)</f>
@@ -6385,7 +6534,7 @@
       <c r="A44" s="95"/>
       <c r="B44" s="96"/>
       <c r="C44" s="68" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D44" s="73" t="str">
         <f>IF(_temp!D44=0,"",_temp!D44)</f>
@@ -6411,13 +6560,13 @@
     <row r="45" spans="1:8">
       <c r="A45" s="95">
         <f t="shared" ca="1" si="3"/>
-        <v>43654</v>
+        <v>43685</v>
       </c>
       <c r="B45" s="96" t="s">
+        <v>76</v>
+      </c>
+      <c r="C45" s="68" t="s">
         <v>77</v>
-      </c>
-      <c r="C45" s="68" t="s">
-        <v>78</v>
       </c>
       <c r="D45" s="73" t="str">
         <f>IF(_temp!D45=0,"",_temp!D45)</f>
@@ -6444,7 +6593,7 @@
       <c r="A46" s="95"/>
       <c r="B46" s="96"/>
       <c r="C46" s="68" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D46" s="73" t="str">
         <f>IF(_temp!D46=0,"",_temp!D46)</f>
@@ -6470,10 +6619,10 @@
     <row r="47" spans="1:8">
       <c r="A47" s="95"/>
       <c r="B47" s="96" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C47" s="68" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D47" s="73" t="str">
         <f>IF(_temp!D47=0,"",_temp!D47)</f>
@@ -6500,7 +6649,7 @@
       <c r="A48" s="95"/>
       <c r="B48" s="96"/>
       <c r="C48" s="68" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D48" s="73" t="str">
         <f>IF(_temp!D48=0,"",_temp!D48)</f>
@@ -6526,10 +6675,10 @@
     <row r="49" spans="1:8">
       <c r="A49" s="95"/>
       <c r="B49" s="96" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C49" s="68" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D49" s="73" t="str">
         <f>IF(_temp!D49=0,"",_temp!D49)</f>
@@ -6556,7 +6705,7 @@
       <c r="A50" s="95"/>
       <c r="B50" s="96"/>
       <c r="C50" s="68" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D50" s="73" t="str">
         <f>IF(_temp!D50=0,"",_temp!D50)</f>
@@ -6582,13 +6731,13 @@
     <row r="51" spans="1:8">
       <c r="A51" s="95">
         <f t="shared" ca="1" si="2"/>
-        <v>43655</v>
+        <v>43686</v>
       </c>
       <c r="B51" s="96" t="s">
+        <v>76</v>
+      </c>
+      <c r="C51" s="68" t="s">
         <v>77</v>
-      </c>
-      <c r="C51" s="68" t="s">
-        <v>78</v>
       </c>
       <c r="D51" s="73" t="str">
         <f>IF(_temp!D51=0,"",_temp!D51)</f>
@@ -6615,7 +6764,7 @@
       <c r="A52" s="95"/>
       <c r="B52" s="96"/>
       <c r="C52" s="68" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D52" s="73" t="str">
         <f>IF(_temp!D52=0,"",_temp!D52)</f>
@@ -6641,10 +6790,10 @@
     <row r="53" spans="1:8">
       <c r="A53" s="95"/>
       <c r="B53" s="96" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C53" s="68" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D53" s="73" t="str">
         <f>IF(_temp!D53=0,"",_temp!D53)</f>
@@ -6671,7 +6820,7 @@
       <c r="A54" s="95"/>
       <c r="B54" s="96"/>
       <c r="C54" s="68" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D54" s="73" t="str">
         <f>IF(_temp!D54=0,"",_temp!D54)</f>
@@ -6697,10 +6846,10 @@
     <row r="55" spans="1:8">
       <c r="A55" s="95"/>
       <c r="B55" s="96" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C55" s="68" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D55" s="73" t="str">
         <f>IF(_temp!D55=0,"",_temp!D55)</f>
@@ -6727,7 +6876,7 @@
       <c r="A56" s="95"/>
       <c r="B56" s="96"/>
       <c r="C56" s="68" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D56" s="73" t="str">
         <f>IF(_temp!D56=0,"",_temp!D56)</f>
@@ -6753,13 +6902,13 @@
     <row r="57" spans="1:8">
       <c r="A57" s="95">
         <f t="shared" ca="1" si="3"/>
-        <v>43656</v>
+        <v>43687</v>
       </c>
       <c r="B57" s="96" t="s">
+        <v>76</v>
+      </c>
+      <c r="C57" s="68" t="s">
         <v>77</v>
-      </c>
-      <c r="C57" s="68" t="s">
-        <v>78</v>
       </c>
       <c r="D57" s="73" t="str">
         <f>IF(_temp!D57=0,"",_temp!D57)</f>
@@ -6786,7 +6935,7 @@
       <c r="A58" s="95"/>
       <c r="B58" s="96"/>
       <c r="C58" s="68" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D58" s="73" t="str">
         <f>IF(_temp!D58=0,"",_temp!D58)</f>
@@ -6812,10 +6961,10 @@
     <row r="59" spans="1:8">
       <c r="A59" s="95"/>
       <c r="B59" s="96" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C59" s="68" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D59" s="73" t="str">
         <f>IF(_temp!D59=0,"",_temp!D59)</f>
@@ -6842,7 +6991,7 @@
       <c r="A60" s="95"/>
       <c r="B60" s="96"/>
       <c r="C60" s="68" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D60" s="73" t="str">
         <f>IF(_temp!D60=0,"",_temp!D60)</f>
@@ -6868,10 +7017,10 @@
     <row r="61" spans="1:8">
       <c r="A61" s="95"/>
       <c r="B61" s="96" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C61" s="68" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D61" s="73" t="str">
         <f>IF(_temp!D61=0,"",_temp!D61)</f>
@@ -6898,7 +7047,7 @@
       <c r="A62" s="95"/>
       <c r="B62" s="96"/>
       <c r="C62" s="68" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D62" s="73" t="str">
         <f>IF(_temp!D62=0,"",_temp!D62)</f>
@@ -6924,13 +7073,13 @@
     <row r="63" spans="1:8">
       <c r="A63" s="95">
         <f t="shared" ca="1" si="2"/>
-        <v>43657</v>
+        <v>43688</v>
       </c>
       <c r="B63" s="96" t="s">
+        <v>76</v>
+      </c>
+      <c r="C63" s="68" t="s">
         <v>77</v>
-      </c>
-      <c r="C63" s="68" t="s">
-        <v>78</v>
       </c>
       <c r="D63" s="73" t="str">
         <f>IF(_temp!D63=0,"",_temp!D63)</f>
@@ -6957,7 +7106,7 @@
       <c r="A64" s="95"/>
       <c r="B64" s="96"/>
       <c r="C64" s="68" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D64" s="73" t="str">
         <f>IF(_temp!D64=0,"",_temp!D64)</f>
@@ -6983,10 +7132,10 @@
     <row r="65" spans="1:8">
       <c r="A65" s="95"/>
       <c r="B65" s="96" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C65" s="68" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D65" s="73" t="str">
         <f>IF(_temp!D65=0,"",_temp!D65)</f>
@@ -7013,7 +7162,7 @@
       <c r="A66" s="95"/>
       <c r="B66" s="96"/>
       <c r="C66" s="68" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D66" s="73" t="str">
         <f>IF(_temp!D66=0,"",_temp!D66)</f>
@@ -7039,10 +7188,10 @@
     <row r="67" spans="1:8">
       <c r="A67" s="95"/>
       <c r="B67" s="96" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C67" s="68" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D67" s="73" t="str">
         <f>IF(_temp!D67=0,"",_temp!D67)</f>
@@ -7069,7 +7218,7 @@
       <c r="A68" s="95"/>
       <c r="B68" s="96"/>
       <c r="C68" s="68" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D68" s="73" t="str">
         <f>IF(_temp!D68=0,"",_temp!D68)</f>
@@ -7095,13 +7244,13 @@
     <row r="69" spans="1:8">
       <c r="A69" s="95">
         <f t="shared" ca="1" si="3"/>
-        <v>43658</v>
+        <v>43689</v>
       </c>
       <c r="B69" s="96" t="s">
+        <v>76</v>
+      </c>
+      <c r="C69" s="68" t="s">
         <v>77</v>
-      </c>
-      <c r="C69" s="68" t="s">
-        <v>78</v>
       </c>
       <c r="D69" s="73" t="str">
         <f>IF(_temp!D69=0,"",_temp!D69)</f>
@@ -7128,7 +7277,7 @@
       <c r="A70" s="95"/>
       <c r="B70" s="96"/>
       <c r="C70" s="68" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D70" s="73" t="str">
         <f>IF(_temp!D70=0,"",_temp!D70)</f>
@@ -7154,10 +7303,10 @@
     <row r="71" spans="1:8">
       <c r="A71" s="95"/>
       <c r="B71" s="96" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C71" s="68" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D71" s="73" t="str">
         <f>IF(_temp!D71=0,"",_temp!D71)</f>
@@ -7184,7 +7333,7 @@
       <c r="A72" s="95"/>
       <c r="B72" s="96"/>
       <c r="C72" s="68" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D72" s="73" t="str">
         <f>IF(_temp!D72=0,"",_temp!D72)</f>
@@ -7210,10 +7359,10 @@
     <row r="73" spans="1:8">
       <c r="A73" s="95"/>
       <c r="B73" s="96" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C73" s="68" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D73" s="73" t="str">
         <f>IF(_temp!D73=0,"",_temp!D73)</f>
@@ -7240,7 +7389,7 @@
       <c r="A74" s="95"/>
       <c r="B74" s="96"/>
       <c r="C74" s="68" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D74" s="73" t="str">
         <f>IF(_temp!D74=0,"",_temp!D74)</f>
@@ -7266,13 +7415,13 @@
     <row r="75" spans="1:8">
       <c r="A75" s="95">
         <f t="shared" ca="1" si="2"/>
-        <v>43659</v>
+        <v>43690</v>
       </c>
       <c r="B75" s="96" t="s">
+        <v>76</v>
+      </c>
+      <c r="C75" s="68" t="s">
         <v>77</v>
-      </c>
-      <c r="C75" s="68" t="s">
-        <v>78</v>
       </c>
       <c r="D75" s="73" t="str">
         <f>IF(_temp!D75=0,"",_temp!D75)</f>
@@ -7299,7 +7448,7 @@
       <c r="A76" s="95"/>
       <c r="B76" s="96"/>
       <c r="C76" s="68" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D76" s="73" t="str">
         <f>IF(_temp!D76=0,"",_temp!D76)</f>
@@ -7325,10 +7474,10 @@
     <row r="77" spans="1:8">
       <c r="A77" s="95"/>
       <c r="B77" s="96" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C77" s="68" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D77" s="73" t="str">
         <f>IF(_temp!D77=0,"",_temp!D77)</f>
@@ -7355,7 +7504,7 @@
       <c r="A78" s="95"/>
       <c r="B78" s="96"/>
       <c r="C78" s="68" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D78" s="73" t="str">
         <f>IF(_temp!D78=0,"",_temp!D78)</f>
@@ -7381,10 +7530,10 @@
     <row r="79" spans="1:8">
       <c r="A79" s="95"/>
       <c r="B79" s="96" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C79" s="68" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D79" s="73" t="str">
         <f>IF(_temp!D79=0,"",_temp!D79)</f>
@@ -7411,7 +7560,7 @@
       <c r="A80" s="95"/>
       <c r="B80" s="96"/>
       <c r="C80" s="68" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D80" s="73" t="str">
         <f>IF(_temp!D80=0,"",_temp!D80)</f>
@@ -7437,13 +7586,13 @@
     <row r="81" spans="1:8">
       <c r="A81" s="95">
         <f t="shared" ca="1" si="3"/>
-        <v>43660</v>
+        <v>43691</v>
       </c>
       <c r="B81" s="96" t="s">
+        <v>76</v>
+      </c>
+      <c r="C81" s="68" t="s">
         <v>77</v>
-      </c>
-      <c r="C81" s="68" t="s">
-        <v>78</v>
       </c>
       <c r="D81" s="73" t="str">
         <f>IF(_temp!D81=0,"",_temp!D81)</f>
@@ -7470,7 +7619,7 @@
       <c r="A82" s="95"/>
       <c r="B82" s="96"/>
       <c r="C82" s="68" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D82" s="73" t="str">
         <f>IF(_temp!D82=0,"",_temp!D82)</f>
@@ -7496,10 +7645,10 @@
     <row r="83" spans="1:8">
       <c r="A83" s="95"/>
       <c r="B83" s="96" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C83" s="68" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D83" s="73" t="str">
         <f>IF(_temp!D83=0,"",_temp!D83)</f>
@@ -7526,7 +7675,7 @@
       <c r="A84" s="95"/>
       <c r="B84" s="96"/>
       <c r="C84" s="68" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D84" s="73" t="str">
         <f>IF(_temp!D84=0,"",_temp!D84)</f>
@@ -7552,10 +7701,10 @@
     <row r="85" spans="1:8">
       <c r="A85" s="95"/>
       <c r="B85" s="96" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C85" s="68" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D85" s="73" t="str">
         <f>IF(_temp!D85=0,"",_temp!D85)</f>
@@ -7582,7 +7731,7 @@
       <c r="A86" s="95"/>
       <c r="B86" s="96"/>
       <c r="C86" s="68" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D86" s="73" t="str">
         <f>IF(_temp!D86=0,"",_temp!D86)</f>
@@ -7608,13 +7757,13 @@
     <row r="87" spans="1:8">
       <c r="A87" s="95">
         <f t="shared" ca="1" si="2"/>
-        <v>43661</v>
+        <v>43692</v>
       </c>
       <c r="B87" s="96" t="s">
+        <v>76</v>
+      </c>
+      <c r="C87" s="68" t="s">
         <v>77</v>
-      </c>
-      <c r="C87" s="68" t="s">
-        <v>78</v>
       </c>
       <c r="D87" s="73" t="str">
         <f>IF(_temp!D87=0,"",_temp!D87)</f>
@@ -7641,7 +7790,7 @@
       <c r="A88" s="95"/>
       <c r="B88" s="96"/>
       <c r="C88" s="68" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D88" s="73" t="str">
         <f>IF(_temp!D88=0,"",_temp!D88)</f>
@@ -7667,10 +7816,10 @@
     <row r="89" spans="1:8">
       <c r="A89" s="95"/>
       <c r="B89" s="96" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C89" s="68" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D89" s="73" t="str">
         <f>IF(_temp!D89=0,"",_temp!D89)</f>
@@ -7697,7 +7846,7 @@
       <c r="A90" s="95"/>
       <c r="B90" s="96"/>
       <c r="C90" s="68" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D90" s="73" t="str">
         <f>IF(_temp!D90=0,"",_temp!D90)</f>
@@ -7723,10 +7872,10 @@
     <row r="91" spans="1:8">
       <c r="A91" s="95"/>
       <c r="B91" s="96" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C91" s="68" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D91" s="73" t="str">
         <f>IF(_temp!D91=0,"",_temp!D91)</f>
@@ -7753,7 +7902,7 @@
       <c r="A92" s="95"/>
       <c r="B92" s="96"/>
       <c r="C92" s="68" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D92" s="73" t="str">
         <f>IF(_temp!D92=0,"",_temp!D92)</f>
@@ -7779,13 +7928,13 @@
     <row r="93" spans="1:8">
       <c r="A93" s="95">
         <f t="shared" ca="1" si="3"/>
-        <v>43662</v>
+        <v>43693</v>
       </c>
       <c r="B93" s="96" t="s">
+        <v>76</v>
+      </c>
+      <c r="C93" s="68" t="s">
         <v>77</v>
-      </c>
-      <c r="C93" s="68" t="s">
-        <v>78</v>
       </c>
       <c r="D93" s="73" t="str">
         <f>IF(_temp!D93=0,"",_temp!D93)</f>
@@ -7812,7 +7961,7 @@
       <c r="A94" s="95"/>
       <c r="B94" s="96"/>
       <c r="C94" s="68" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D94" s="73" t="str">
         <f>IF(_temp!D94=0,"",_temp!D94)</f>
@@ -7838,10 +7987,10 @@
     <row r="95" spans="1:8">
       <c r="A95" s="95"/>
       <c r="B95" s="96" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C95" s="68" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D95" s="73" t="str">
         <f>IF(_temp!D95=0,"",_temp!D95)</f>
@@ -7868,7 +8017,7 @@
       <c r="A96" s="95"/>
       <c r="B96" s="96"/>
       <c r="C96" s="68" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D96" s="73" t="str">
         <f>IF(_temp!D96=0,"",_temp!D96)</f>
@@ -7894,10 +8043,10 @@
     <row r="97" spans="1:8">
       <c r="A97" s="95"/>
       <c r="B97" s="96" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C97" s="68" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D97" s="73" t="str">
         <f>IF(_temp!D97=0,"",_temp!D97)</f>
@@ -7924,7 +8073,7 @@
       <c r="A98" s="95"/>
       <c r="B98" s="96"/>
       <c r="C98" s="68" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D98" s="73" t="str">
         <f>IF(_temp!D98=0,"",_temp!D98)</f>
@@ -7950,13 +8099,13 @@
     <row r="99" spans="1:8">
       <c r="A99" s="95">
         <f t="shared" ref="A99:A159" ca="1" si="4">A93+1</f>
-        <v>43663</v>
+        <v>43694</v>
       </c>
       <c r="B99" s="96" t="s">
+        <v>76</v>
+      </c>
+      <c r="C99" s="68" t="s">
         <v>77</v>
-      </c>
-      <c r="C99" s="68" t="s">
-        <v>78</v>
       </c>
       <c r="D99" s="73" t="str">
         <f>IF(_temp!D99=0,"",_temp!D99)</f>
@@ -7983,7 +8132,7 @@
       <c r="A100" s="95"/>
       <c r="B100" s="96"/>
       <c r="C100" s="68" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D100" s="73" t="str">
         <f>IF(_temp!D100=0,"",_temp!D100)</f>
@@ -8009,10 +8158,10 @@
     <row r="101" spans="1:8">
       <c r="A101" s="95"/>
       <c r="B101" s="96" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C101" s="68" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D101" s="73" t="str">
         <f>IF(_temp!D101=0,"",_temp!D101)</f>
@@ -8039,7 +8188,7 @@
       <c r="A102" s="95"/>
       <c r="B102" s="96"/>
       <c r="C102" s="68" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D102" s="73" t="str">
         <f>IF(_temp!D102=0,"",_temp!D102)</f>
@@ -8065,10 +8214,10 @@
     <row r="103" spans="1:8">
       <c r="A103" s="95"/>
       <c r="B103" s="96" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C103" s="68" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D103" s="73" t="str">
         <f>IF(_temp!D103=0,"",_temp!D103)</f>
@@ -8095,7 +8244,7 @@
       <c r="A104" s="95"/>
       <c r="B104" s="96"/>
       <c r="C104" s="68" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D104" s="73" t="str">
         <f>IF(_temp!D104=0,"",_temp!D104)</f>
@@ -8121,13 +8270,13 @@
     <row r="105" spans="1:8">
       <c r="A105" s="95">
         <f t="shared" ref="A105:A165" ca="1" si="5">A99+1</f>
-        <v>43664</v>
+        <v>43695</v>
       </c>
       <c r="B105" s="96" t="s">
+        <v>76</v>
+      </c>
+      <c r="C105" s="68" t="s">
         <v>77</v>
-      </c>
-      <c r="C105" s="68" t="s">
-        <v>78</v>
       </c>
       <c r="D105" s="73" t="str">
         <f>IF(_temp!D105=0,"",_temp!D105)</f>
@@ -8154,7 +8303,7 @@
       <c r="A106" s="95"/>
       <c r="B106" s="96"/>
       <c r="C106" s="68" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D106" s="73" t="str">
         <f>IF(_temp!D106=0,"",_temp!D106)</f>
@@ -8180,10 +8329,10 @@
     <row r="107" spans="1:8">
       <c r="A107" s="95"/>
       <c r="B107" s="96" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C107" s="68" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D107" s="73" t="str">
         <f>IF(_temp!D107=0,"",_temp!D107)</f>
@@ -8210,7 +8359,7 @@
       <c r="A108" s="95"/>
       <c r="B108" s="96"/>
       <c r="C108" s="68" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D108" s="73" t="str">
         <f>IF(_temp!D108=0,"",_temp!D108)</f>
@@ -8236,10 +8385,10 @@
     <row r="109" spans="1:8">
       <c r="A109" s="95"/>
       <c r="B109" s="96" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C109" s="68" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D109" s="73" t="str">
         <f>IF(_temp!D109=0,"",_temp!D109)</f>
@@ -8266,7 +8415,7 @@
       <c r="A110" s="95"/>
       <c r="B110" s="96"/>
       <c r="C110" s="68" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D110" s="73" t="str">
         <f>IF(_temp!D110=0,"",_temp!D110)</f>
@@ -8292,13 +8441,13 @@
     <row r="111" spans="1:8">
       <c r="A111" s="95">
         <f t="shared" ca="1" si="4"/>
-        <v>43665</v>
+        <v>43696</v>
       </c>
       <c r="B111" s="96" t="s">
+        <v>76</v>
+      </c>
+      <c r="C111" s="68" t="s">
         <v>77</v>
-      </c>
-      <c r="C111" s="68" t="s">
-        <v>78</v>
       </c>
       <c r="D111" s="73" t="str">
         <f>IF(_temp!D111=0,"",_temp!D111)</f>
@@ -8325,7 +8474,7 @@
       <c r="A112" s="95"/>
       <c r="B112" s="96"/>
       <c r="C112" s="68" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D112" s="73" t="str">
         <f>IF(_temp!D112=0,"",_temp!D112)</f>
@@ -8351,10 +8500,10 @@
     <row r="113" spans="1:8">
       <c r="A113" s="95"/>
       <c r="B113" s="96" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C113" s="68" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D113" s="73" t="str">
         <f>IF(_temp!D113=0,"",_temp!D113)</f>
@@ -8381,7 +8530,7 @@
       <c r="A114" s="95"/>
       <c r="B114" s="96"/>
       <c r="C114" s="68" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D114" s="73" t="str">
         <f>IF(_temp!D114=0,"",_temp!D114)</f>
@@ -8407,10 +8556,10 @@
     <row r="115" spans="1:8">
       <c r="A115" s="95"/>
       <c r="B115" s="96" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C115" s="68" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D115" s="73" t="str">
         <f>IF(_temp!D115=0,"",_temp!D115)</f>
@@ -8437,7 +8586,7 @@
       <c r="A116" s="95"/>
       <c r="B116" s="96"/>
       <c r="C116" s="68" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D116" s="73" t="str">
         <f>IF(_temp!D116=0,"",_temp!D116)</f>
@@ -8463,13 +8612,13 @@
     <row r="117" spans="1:8">
       <c r="A117" s="95">
         <f t="shared" ca="1" si="5"/>
-        <v>43666</v>
+        <v>43697</v>
       </c>
       <c r="B117" s="96" t="s">
+        <v>76</v>
+      </c>
+      <c r="C117" s="68" t="s">
         <v>77</v>
-      </c>
-      <c r="C117" s="68" t="s">
-        <v>78</v>
       </c>
       <c r="D117" s="73" t="str">
         <f>IF(_temp!D117=0,"",_temp!D117)</f>
@@ -8496,7 +8645,7 @@
       <c r="A118" s="95"/>
       <c r="B118" s="96"/>
       <c r="C118" s="68" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D118" s="73" t="str">
         <f>IF(_temp!D118=0,"",_temp!D118)</f>
@@ -8522,10 +8671,10 @@
     <row r="119" spans="1:8">
       <c r="A119" s="95"/>
       <c r="B119" s="96" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C119" s="68" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D119" s="73" t="str">
         <f>IF(_temp!D119=0,"",_temp!D119)</f>
@@ -8552,7 +8701,7 @@
       <c r="A120" s="95"/>
       <c r="B120" s="96"/>
       <c r="C120" s="68" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D120" s="73" t="str">
         <f>IF(_temp!D120=0,"",_temp!D120)</f>
@@ -8578,10 +8727,10 @@
     <row r="121" spans="1:8">
       <c r="A121" s="95"/>
       <c r="B121" s="96" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C121" s="68" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D121" s="73" t="str">
         <f>IF(_temp!D121=0,"",_temp!D121)</f>
@@ -8608,7 +8757,7 @@
       <c r="A122" s="95"/>
       <c r="B122" s="96"/>
       <c r="C122" s="68" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D122" s="73" t="str">
         <f>IF(_temp!D122=0,"",_temp!D122)</f>
@@ -8634,13 +8783,13 @@
     <row r="123" spans="1:8">
       <c r="A123" s="95">
         <f t="shared" ca="1" si="4"/>
-        <v>43667</v>
+        <v>43698</v>
       </c>
       <c r="B123" s="96" t="s">
+        <v>76</v>
+      </c>
+      <c r="C123" s="68" t="s">
         <v>77</v>
-      </c>
-      <c r="C123" s="68" t="s">
-        <v>78</v>
       </c>
       <c r="D123" s="73" t="str">
         <f>IF(_temp!D123=0,"",_temp!D123)</f>
@@ -8667,7 +8816,7 @@
       <c r="A124" s="95"/>
       <c r="B124" s="96"/>
       <c r="C124" s="68" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D124" s="73" t="str">
         <f>IF(_temp!D124=0,"",_temp!D124)</f>
@@ -8693,10 +8842,10 @@
     <row r="125" spans="1:8">
       <c r="A125" s="95"/>
       <c r="B125" s="96" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C125" s="68" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D125" s="73" t="str">
         <f>IF(_temp!D125=0,"",_temp!D125)</f>
@@ -8723,7 +8872,7 @@
       <c r="A126" s="95"/>
       <c r="B126" s="96"/>
       <c r="C126" s="68" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D126" s="73" t="str">
         <f>IF(_temp!D126=0,"",_temp!D126)</f>
@@ -8749,10 +8898,10 @@
     <row r="127" spans="1:8">
       <c r="A127" s="95"/>
       <c r="B127" s="96" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C127" s="68" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D127" s="73" t="str">
         <f>IF(_temp!D127=0,"",_temp!D127)</f>
@@ -8779,7 +8928,7 @@
       <c r="A128" s="95"/>
       <c r="B128" s="96"/>
       <c r="C128" s="68" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D128" s="73" t="str">
         <f>IF(_temp!D128=0,"",_temp!D128)</f>
@@ -8805,13 +8954,13 @@
     <row r="129" spans="1:8">
       <c r="A129" s="95">
         <f t="shared" ca="1" si="5"/>
-        <v>43668</v>
+        <v>43699</v>
       </c>
       <c r="B129" s="96" t="s">
+        <v>76</v>
+      </c>
+      <c r="C129" s="68" t="s">
         <v>77</v>
-      </c>
-      <c r="C129" s="68" t="s">
-        <v>78</v>
       </c>
       <c r="D129" s="73" t="str">
         <f>IF(_temp!D129=0,"",_temp!D129)</f>
@@ -8838,7 +8987,7 @@
       <c r="A130" s="95"/>
       <c r="B130" s="96"/>
       <c r="C130" s="68" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D130" s="73" t="str">
         <f>IF(_temp!D130=0,"",_temp!D130)</f>
@@ -8864,10 +9013,10 @@
     <row r="131" spans="1:8">
       <c r="A131" s="95"/>
       <c r="B131" s="96" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C131" s="68" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D131" s="73" t="str">
         <f>IF(_temp!D131=0,"",_temp!D131)</f>
@@ -8894,7 +9043,7 @@
       <c r="A132" s="95"/>
       <c r="B132" s="96"/>
       <c r="C132" s="68" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D132" s="73" t="str">
         <f>IF(_temp!D132=0,"",_temp!D132)</f>
@@ -8920,10 +9069,10 @@
     <row r="133" spans="1:8">
       <c r="A133" s="95"/>
       <c r="B133" s="96" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C133" s="68" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D133" s="73" t="str">
         <f>IF(_temp!D133=0,"",_temp!D133)</f>
@@ -8950,7 +9099,7 @@
       <c r="A134" s="95"/>
       <c r="B134" s="96"/>
       <c r="C134" s="68" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D134" s="73" t="str">
         <f>IF(_temp!D134=0,"",_temp!D134)</f>
@@ -8976,13 +9125,13 @@
     <row r="135" spans="1:8">
       <c r="A135" s="95">
         <f t="shared" ca="1" si="4"/>
-        <v>43669</v>
+        <v>43700</v>
       </c>
       <c r="B135" s="96" t="s">
+        <v>76</v>
+      </c>
+      <c r="C135" s="68" t="s">
         <v>77</v>
-      </c>
-      <c r="C135" s="68" t="s">
-        <v>78</v>
       </c>
       <c r="D135" s="73" t="str">
         <f>IF(_temp!D135=0,"",_temp!D135)</f>
@@ -9009,7 +9158,7 @@
       <c r="A136" s="95"/>
       <c r="B136" s="96"/>
       <c r="C136" s="68" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D136" s="73" t="str">
         <f>IF(_temp!D136=0,"",_temp!D136)</f>
@@ -9035,10 +9184,10 @@
     <row r="137" spans="1:8">
       <c r="A137" s="95"/>
       <c r="B137" s="96" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C137" s="68" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D137" s="73" t="str">
         <f>IF(_temp!D137=0,"",_temp!D137)</f>
@@ -9065,7 +9214,7 @@
       <c r="A138" s="95"/>
       <c r="B138" s="96"/>
       <c r="C138" s="68" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D138" s="73" t="str">
         <f>IF(_temp!D138=0,"",_temp!D138)</f>
@@ -9091,10 +9240,10 @@
     <row r="139" spans="1:8">
       <c r="A139" s="95"/>
       <c r="B139" s="96" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C139" s="68" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D139" s="73" t="str">
         <f>IF(_temp!D139=0,"",_temp!D139)</f>
@@ -9121,7 +9270,7 @@
       <c r="A140" s="95"/>
       <c r="B140" s="96"/>
       <c r="C140" s="68" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D140" s="73" t="str">
         <f>IF(_temp!D140=0,"",_temp!D140)</f>
@@ -9147,13 +9296,13 @@
     <row r="141" spans="1:8">
       <c r="A141" s="95">
         <f t="shared" ca="1" si="5"/>
-        <v>43670</v>
+        <v>43701</v>
       </c>
       <c r="B141" s="96" t="s">
+        <v>76</v>
+      </c>
+      <c r="C141" s="68" t="s">
         <v>77</v>
-      </c>
-      <c r="C141" s="68" t="s">
-        <v>78</v>
       </c>
       <c r="D141" s="73" t="str">
         <f>IF(_temp!D141=0,"",_temp!D141)</f>
@@ -9180,7 +9329,7 @@
       <c r="A142" s="95"/>
       <c r="B142" s="96"/>
       <c r="C142" s="68" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D142" s="73" t="str">
         <f>IF(_temp!D142=0,"",_temp!D142)</f>
@@ -9206,10 +9355,10 @@
     <row r="143" spans="1:8">
       <c r="A143" s="95"/>
       <c r="B143" s="96" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C143" s="68" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D143" s="73" t="str">
         <f>IF(_temp!D143=0,"",_temp!D143)</f>
@@ -9236,7 +9385,7 @@
       <c r="A144" s="95"/>
       <c r="B144" s="96"/>
       <c r="C144" s="68" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D144" s="73" t="str">
         <f>IF(_temp!D144=0,"",_temp!D144)</f>
@@ -9262,10 +9411,10 @@
     <row r="145" spans="1:8">
       <c r="A145" s="95"/>
       <c r="B145" s="96" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C145" s="68" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D145" s="73" t="str">
         <f>IF(_temp!D145=0,"",_temp!D145)</f>
@@ -9292,7 +9441,7 @@
       <c r="A146" s="95"/>
       <c r="B146" s="96"/>
       <c r="C146" s="68" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D146" s="73" t="str">
         <f>IF(_temp!D146=0,"",_temp!D146)</f>
@@ -9318,13 +9467,13 @@
     <row r="147" spans="1:8">
       <c r="A147" s="95">
         <f t="shared" ca="1" si="4"/>
-        <v>43671</v>
+        <v>43702</v>
       </c>
       <c r="B147" s="96" t="s">
+        <v>76</v>
+      </c>
+      <c r="C147" s="68" t="s">
         <v>77</v>
-      </c>
-      <c r="C147" s="68" t="s">
-        <v>78</v>
       </c>
       <c r="D147" s="73" t="str">
         <f>IF(_temp!D147=0,"",_temp!D147)</f>
@@ -9351,7 +9500,7 @@
       <c r="A148" s="95"/>
       <c r="B148" s="96"/>
       <c r="C148" s="68" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D148" s="73" t="str">
         <f>IF(_temp!D148=0,"",_temp!D148)</f>
@@ -9377,10 +9526,10 @@
     <row r="149" spans="1:8">
       <c r="A149" s="95"/>
       <c r="B149" s="96" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C149" s="68" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D149" s="73" t="str">
         <f>IF(_temp!D149=0,"",_temp!D149)</f>
@@ -9407,7 +9556,7 @@
       <c r="A150" s="95"/>
       <c r="B150" s="96"/>
       <c r="C150" s="68" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D150" s="73" t="str">
         <f>IF(_temp!D150=0,"",_temp!D150)</f>
@@ -9433,10 +9582,10 @@
     <row r="151" spans="1:8">
       <c r="A151" s="95"/>
       <c r="B151" s="96" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C151" s="68" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D151" s="73" t="str">
         <f>IF(_temp!D151=0,"",_temp!D151)</f>
@@ -9463,7 +9612,7 @@
       <c r="A152" s="95"/>
       <c r="B152" s="96"/>
       <c r="C152" s="68" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D152" s="73" t="str">
         <f>IF(_temp!D152=0,"",_temp!D152)</f>
@@ -9489,13 +9638,13 @@
     <row r="153" spans="1:8">
       <c r="A153" s="95">
         <f t="shared" ca="1" si="5"/>
-        <v>43672</v>
+        <v>43703</v>
       </c>
       <c r="B153" s="96" t="s">
+        <v>76</v>
+      </c>
+      <c r="C153" s="68" t="s">
         <v>77</v>
-      </c>
-      <c r="C153" s="68" t="s">
-        <v>78</v>
       </c>
       <c r="D153" s="73" t="str">
         <f>IF(_temp!D153=0,"",_temp!D153)</f>
@@ -9522,7 +9671,7 @@
       <c r="A154" s="95"/>
       <c r="B154" s="96"/>
       <c r="C154" s="68" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D154" s="73" t="str">
         <f>IF(_temp!D154=0,"",_temp!D154)</f>
@@ -9548,10 +9697,10 @@
     <row r="155" spans="1:8">
       <c r="A155" s="95"/>
       <c r="B155" s="96" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C155" s="68" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D155" s="73" t="str">
         <f>IF(_temp!D155=0,"",_temp!D155)</f>
@@ -9578,7 +9727,7 @@
       <c r="A156" s="95"/>
       <c r="B156" s="96"/>
       <c r="C156" s="68" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D156" s="73" t="str">
         <f>IF(_temp!D156=0,"",_temp!D156)</f>
@@ -9604,10 +9753,10 @@
     <row r="157" spans="1:8">
       <c r="A157" s="95"/>
       <c r="B157" s="96" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C157" s="68" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D157" s="73" t="str">
         <f>IF(_temp!D157=0,"",_temp!D157)</f>
@@ -9634,7 +9783,7 @@
       <c r="A158" s="95"/>
       <c r="B158" s="96"/>
       <c r="C158" s="68" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D158" s="73" t="str">
         <f>IF(_temp!D158=0,"",_temp!D158)</f>
@@ -9660,13 +9809,13 @@
     <row r="159" spans="1:8">
       <c r="A159" s="95">
         <f t="shared" ca="1" si="4"/>
-        <v>43673</v>
+        <v>43704</v>
       </c>
       <c r="B159" s="96" t="s">
+        <v>76</v>
+      </c>
+      <c r="C159" s="68" t="s">
         <v>77</v>
-      </c>
-      <c r="C159" s="68" t="s">
-        <v>78</v>
       </c>
       <c r="D159" s="73" t="str">
         <f>IF(_temp!D159=0,"",_temp!D159)</f>
@@ -9693,7 +9842,7 @@
       <c r="A160" s="95"/>
       <c r="B160" s="96"/>
       <c r="C160" s="68" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D160" s="73" t="str">
         <f>IF(_temp!D160=0,"",_temp!D160)</f>
@@ -9719,10 +9868,10 @@
     <row r="161" spans="1:8">
       <c r="A161" s="95"/>
       <c r="B161" s="96" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C161" s="68" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D161" s="73" t="str">
         <f>IF(_temp!D161=0,"",_temp!D161)</f>
@@ -9749,7 +9898,7 @@
       <c r="A162" s="95"/>
       <c r="B162" s="96"/>
       <c r="C162" s="68" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D162" s="73" t="str">
         <f>IF(_temp!D162=0,"",_temp!D162)</f>
@@ -9775,10 +9924,10 @@
     <row r="163" spans="1:8">
       <c r="A163" s="95"/>
       <c r="B163" s="96" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C163" s="68" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D163" s="73" t="str">
         <f>IF(_temp!D163=0,"",_temp!D163)</f>
@@ -9805,7 +9954,7 @@
       <c r="A164" s="95"/>
       <c r="B164" s="96"/>
       <c r="C164" s="68" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D164" s="73" t="str">
         <f>IF(_temp!D164=0,"",_temp!D164)</f>
@@ -9831,13 +9980,13 @@
     <row r="165" spans="1:8">
       <c r="A165" s="95">
         <f t="shared" ca="1" si="5"/>
-        <v>43674</v>
+        <v>43705</v>
       </c>
       <c r="B165" s="96" t="s">
+        <v>76</v>
+      </c>
+      <c r="C165" s="68" t="s">
         <v>77</v>
-      </c>
-      <c r="C165" s="68" t="s">
-        <v>78</v>
       </c>
       <c r="D165" s="73" t="str">
         <f>IF(_temp!D165=0,"",_temp!D165)</f>
@@ -9864,7 +10013,7 @@
       <c r="A166" s="95"/>
       <c r="B166" s="96"/>
       <c r="C166" s="68" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D166" s="73" t="str">
         <f>IF(_temp!D166=0,"",_temp!D166)</f>
@@ -9890,10 +10039,10 @@
     <row r="167" spans="1:8">
       <c r="A167" s="95"/>
       <c r="B167" s="96" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C167" s="68" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D167" s="73" t="str">
         <f>IF(_temp!D167=0,"",_temp!D167)</f>
@@ -9920,7 +10069,7 @@
       <c r="A168" s="95"/>
       <c r="B168" s="96"/>
       <c r="C168" s="68" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D168" s="73" t="str">
         <f>IF(_temp!D168=0,"",_temp!D168)</f>
@@ -9946,10 +10095,10 @@
     <row r="169" spans="1:8">
       <c r="A169" s="95"/>
       <c r="B169" s="96" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C169" s="68" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D169" s="73" t="str">
         <f>IF(_temp!D169=0,"",_temp!D169)</f>
@@ -9976,7 +10125,7 @@
       <c r="A170" s="95"/>
       <c r="B170" s="96"/>
       <c r="C170" s="68" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D170" s="73" t="str">
         <f>IF(_temp!D170=0,"",_temp!D170)</f>
@@ -10002,13 +10151,13 @@
     <row r="171" spans="1:8">
       <c r="A171" s="95">
         <f t="shared" ref="A171:A183" ca="1" si="6">A165+1</f>
-        <v>43675</v>
+        <v>43706</v>
       </c>
       <c r="B171" s="96" t="s">
+        <v>76</v>
+      </c>
+      <c r="C171" s="68" t="s">
         <v>77</v>
-      </c>
-      <c r="C171" s="68" t="s">
-        <v>78</v>
       </c>
       <c r="D171" s="73" t="str">
         <f>IF(_temp!D171=0,"",_temp!D171)</f>
@@ -10035,7 +10184,7 @@
       <c r="A172" s="95"/>
       <c r="B172" s="96"/>
       <c r="C172" s="68" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D172" s="73" t="str">
         <f>IF(_temp!D172=0,"",_temp!D172)</f>
@@ -10061,10 +10210,10 @@
     <row r="173" spans="1:8">
       <c r="A173" s="95"/>
       <c r="B173" s="96" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C173" s="68" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D173" s="73" t="str">
         <f>IF(_temp!D173=0,"",_temp!D173)</f>
@@ -10091,7 +10240,7 @@
       <c r="A174" s="95"/>
       <c r="B174" s="96"/>
       <c r="C174" s="68" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D174" s="73" t="str">
         <f>IF(_temp!D174=0,"",_temp!D174)</f>
@@ -10117,10 +10266,10 @@
     <row r="175" spans="1:8">
       <c r="A175" s="95"/>
       <c r="B175" s="96" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C175" s="68" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D175" s="73" t="str">
         <f>IF(_temp!D175=0,"",_temp!D175)</f>
@@ -10147,7 +10296,7 @@
       <c r="A176" s="95"/>
       <c r="B176" s="96"/>
       <c r="C176" s="68" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D176" s="73" t="str">
         <f>IF(_temp!D176=0,"",_temp!D176)</f>
@@ -10173,13 +10322,13 @@
     <row r="177" spans="1:8">
       <c r="A177" s="95">
         <f t="shared" ref="A177" ca="1" si="7">A171+1</f>
-        <v>43676</v>
+        <v>43707</v>
       </c>
       <c r="B177" s="96" t="s">
+        <v>76</v>
+      </c>
+      <c r="C177" s="68" t="s">
         <v>77</v>
-      </c>
-      <c r="C177" s="68" t="s">
-        <v>78</v>
       </c>
       <c r="D177" s="73" t="str">
         <f>IF(_temp!D177=0,"",_temp!D177)</f>
@@ -10206,7 +10355,7 @@
       <c r="A178" s="95"/>
       <c r="B178" s="96"/>
       <c r="C178" s="68" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D178" s="73" t="str">
         <f>IF(_temp!D178=0,"",_temp!D178)</f>
@@ -10232,10 +10381,10 @@
     <row r="179" spans="1:8">
       <c r="A179" s="95"/>
       <c r="B179" s="96" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C179" s="68" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D179" s="73" t="str">
         <f>IF(_temp!D179=0,"",_temp!D179)</f>
@@ -10262,7 +10411,7 @@
       <c r="A180" s="95"/>
       <c r="B180" s="96"/>
       <c r="C180" s="68" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D180" s="73" t="str">
         <f>IF(_temp!D180=0,"",_temp!D180)</f>
@@ -10288,10 +10437,10 @@
     <row r="181" spans="1:8">
       <c r="A181" s="95"/>
       <c r="B181" s="96" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C181" s="68" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D181" s="73" t="str">
         <f>IF(_temp!D181=0,"",_temp!D181)</f>
@@ -10318,7 +10467,7 @@
       <c r="A182" s="95"/>
       <c r="B182" s="96"/>
       <c r="C182" s="68" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D182" s="73" t="str">
         <f>IF(_temp!D182=0,"",_temp!D182)</f>
@@ -10344,13 +10493,13 @@
     <row r="183" spans="1:8">
       <c r="A183" s="95">
         <f t="shared" ca="1" si="6"/>
-        <v>43677</v>
+        <v>43708</v>
       </c>
       <c r="B183" s="96" t="s">
+        <v>76</v>
+      </c>
+      <c r="C183" s="68" t="s">
         <v>77</v>
-      </c>
-      <c r="C183" s="68" t="s">
-        <v>78</v>
       </c>
       <c r="D183" s="73" t="str">
         <f>IF(_temp!D183=0,"",_temp!D183)</f>
@@ -10377,7 +10526,7 @@
       <c r="A184" s="95"/>
       <c r="B184" s="96"/>
       <c r="C184" s="68" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D184" s="73" t="str">
         <f>IF(_temp!D184=0,"",_temp!D184)</f>
@@ -10403,10 +10552,10 @@
     <row r="185" spans="1:8">
       <c r="A185" s="95"/>
       <c r="B185" s="96" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C185" s="68" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D185" s="73" t="str">
         <f>IF(_temp!D185=0,"",_temp!D185)</f>
@@ -10433,7 +10582,7 @@
       <c r="A186" s="95"/>
       <c r="B186" s="96"/>
       <c r="C186" s="68" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D186" s="73" t="str">
         <f>IF(_temp!D186=0,"",_temp!D186)</f>
@@ -10459,10 +10608,10 @@
     <row r="187" spans="1:8">
       <c r="A187" s="95"/>
       <c r="B187" s="96" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C187" s="68" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D187" s="73" t="str">
         <f>IF(_temp!D187=0,"",_temp!D187)</f>
@@ -10489,7 +10638,7 @@
       <c r="A188" s="95"/>
       <c r="B188" s="96"/>
       <c r="C188" s="68" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D188" s="73" t="str">
         <f>IF(_temp!D188=0,"",_temp!D188)</f>
@@ -10536,114 +10685,6 @@
     </row>
   </sheetData>
   <mergeCells count="125">
-    <mergeCell ref="A183:A188"/>
-    <mergeCell ref="B183:B184"/>
-    <mergeCell ref="B185:B186"/>
-    <mergeCell ref="B187:B188"/>
-    <mergeCell ref="A171:A176"/>
-    <mergeCell ref="B171:B172"/>
-    <mergeCell ref="B173:B174"/>
-    <mergeCell ref="B175:B176"/>
-    <mergeCell ref="A177:A182"/>
-    <mergeCell ref="B177:B178"/>
-    <mergeCell ref="B179:B180"/>
-    <mergeCell ref="B181:B182"/>
-    <mergeCell ref="A159:A164"/>
-    <mergeCell ref="B159:B160"/>
-    <mergeCell ref="B161:B162"/>
-    <mergeCell ref="B163:B164"/>
-    <mergeCell ref="A165:A170"/>
-    <mergeCell ref="B165:B166"/>
-    <mergeCell ref="B167:B168"/>
-    <mergeCell ref="B169:B170"/>
-    <mergeCell ref="A147:A152"/>
-    <mergeCell ref="B147:B148"/>
-    <mergeCell ref="B149:B150"/>
-    <mergeCell ref="B151:B152"/>
-    <mergeCell ref="A153:A158"/>
-    <mergeCell ref="B153:B154"/>
-    <mergeCell ref="B155:B156"/>
-    <mergeCell ref="B157:B158"/>
-    <mergeCell ref="A135:A140"/>
-    <mergeCell ref="B135:B136"/>
-    <mergeCell ref="B137:B138"/>
-    <mergeCell ref="B139:B140"/>
-    <mergeCell ref="A141:A146"/>
-    <mergeCell ref="B141:B142"/>
-    <mergeCell ref="B143:B144"/>
-    <mergeCell ref="B145:B146"/>
-    <mergeCell ref="A123:A128"/>
-    <mergeCell ref="B123:B124"/>
-    <mergeCell ref="B125:B126"/>
-    <mergeCell ref="B127:B128"/>
-    <mergeCell ref="A129:A134"/>
-    <mergeCell ref="B129:B130"/>
-    <mergeCell ref="B131:B132"/>
-    <mergeCell ref="B133:B134"/>
-    <mergeCell ref="A111:A116"/>
-    <mergeCell ref="B111:B112"/>
-    <mergeCell ref="B113:B114"/>
-    <mergeCell ref="B115:B116"/>
-    <mergeCell ref="A117:A122"/>
-    <mergeCell ref="B117:B118"/>
-    <mergeCell ref="B119:B120"/>
-    <mergeCell ref="B121:B122"/>
-    <mergeCell ref="A99:A104"/>
-    <mergeCell ref="B99:B100"/>
-    <mergeCell ref="B101:B102"/>
-    <mergeCell ref="B103:B104"/>
-    <mergeCell ref="A105:A110"/>
-    <mergeCell ref="B105:B106"/>
-    <mergeCell ref="B107:B108"/>
-    <mergeCell ref="B109:B110"/>
-    <mergeCell ref="A87:A92"/>
-    <mergeCell ref="B87:B88"/>
-    <mergeCell ref="B89:B90"/>
-    <mergeCell ref="B91:B92"/>
-    <mergeCell ref="A93:A98"/>
-    <mergeCell ref="B93:B94"/>
-    <mergeCell ref="B95:B96"/>
-    <mergeCell ref="B97:B98"/>
-    <mergeCell ref="A75:A80"/>
-    <mergeCell ref="B75:B76"/>
-    <mergeCell ref="B77:B78"/>
-    <mergeCell ref="B79:B80"/>
-    <mergeCell ref="A81:A86"/>
-    <mergeCell ref="B81:B82"/>
-    <mergeCell ref="B83:B84"/>
-    <mergeCell ref="B85:B86"/>
-    <mergeCell ref="A63:A68"/>
-    <mergeCell ref="B63:B64"/>
-    <mergeCell ref="B65:B66"/>
-    <mergeCell ref="B67:B68"/>
-    <mergeCell ref="A69:A74"/>
-    <mergeCell ref="B69:B70"/>
-    <mergeCell ref="B71:B72"/>
-    <mergeCell ref="B73:B74"/>
-    <mergeCell ref="A51:A56"/>
-    <mergeCell ref="B51:B52"/>
-    <mergeCell ref="B53:B54"/>
-    <mergeCell ref="B55:B56"/>
-    <mergeCell ref="A57:A62"/>
-    <mergeCell ref="B57:B58"/>
-    <mergeCell ref="B59:B60"/>
-    <mergeCell ref="B61:B62"/>
-    <mergeCell ref="A39:A44"/>
-    <mergeCell ref="B39:B40"/>
-    <mergeCell ref="B41:B42"/>
-    <mergeCell ref="B43:B44"/>
-    <mergeCell ref="A45:A50"/>
-    <mergeCell ref="B45:B46"/>
-    <mergeCell ref="B47:B48"/>
-    <mergeCell ref="B49:B50"/>
-    <mergeCell ref="A27:A32"/>
-    <mergeCell ref="B27:B28"/>
-    <mergeCell ref="B29:B30"/>
-    <mergeCell ref="B31:B32"/>
-    <mergeCell ref="A33:A38"/>
-    <mergeCell ref="B33:B34"/>
-    <mergeCell ref="B35:B36"/>
-    <mergeCell ref="B37:B38"/>
     <mergeCell ref="A15:A20"/>
     <mergeCell ref="B15:B16"/>
     <mergeCell ref="B17:B18"/>
@@ -10661,6 +10702,114 @@
     <mergeCell ref="B9:B10"/>
     <mergeCell ref="B11:B12"/>
     <mergeCell ref="B13:B14"/>
+    <mergeCell ref="A39:A44"/>
+    <mergeCell ref="B39:B40"/>
+    <mergeCell ref="B41:B42"/>
+    <mergeCell ref="B43:B44"/>
+    <mergeCell ref="A45:A50"/>
+    <mergeCell ref="B45:B46"/>
+    <mergeCell ref="B47:B48"/>
+    <mergeCell ref="B49:B50"/>
+    <mergeCell ref="A27:A32"/>
+    <mergeCell ref="B27:B28"/>
+    <mergeCell ref="B29:B30"/>
+    <mergeCell ref="B31:B32"/>
+    <mergeCell ref="A33:A38"/>
+    <mergeCell ref="B33:B34"/>
+    <mergeCell ref="B35:B36"/>
+    <mergeCell ref="B37:B38"/>
+    <mergeCell ref="A63:A68"/>
+    <mergeCell ref="B63:B64"/>
+    <mergeCell ref="B65:B66"/>
+    <mergeCell ref="B67:B68"/>
+    <mergeCell ref="A69:A74"/>
+    <mergeCell ref="B69:B70"/>
+    <mergeCell ref="B71:B72"/>
+    <mergeCell ref="B73:B74"/>
+    <mergeCell ref="A51:A56"/>
+    <mergeCell ref="B51:B52"/>
+    <mergeCell ref="B53:B54"/>
+    <mergeCell ref="B55:B56"/>
+    <mergeCell ref="A57:A62"/>
+    <mergeCell ref="B57:B58"/>
+    <mergeCell ref="B59:B60"/>
+    <mergeCell ref="B61:B62"/>
+    <mergeCell ref="A87:A92"/>
+    <mergeCell ref="B87:B88"/>
+    <mergeCell ref="B89:B90"/>
+    <mergeCell ref="B91:B92"/>
+    <mergeCell ref="A93:A98"/>
+    <mergeCell ref="B93:B94"/>
+    <mergeCell ref="B95:B96"/>
+    <mergeCell ref="B97:B98"/>
+    <mergeCell ref="A75:A80"/>
+    <mergeCell ref="B75:B76"/>
+    <mergeCell ref="B77:B78"/>
+    <mergeCell ref="B79:B80"/>
+    <mergeCell ref="A81:A86"/>
+    <mergeCell ref="B81:B82"/>
+    <mergeCell ref="B83:B84"/>
+    <mergeCell ref="B85:B86"/>
+    <mergeCell ref="A111:A116"/>
+    <mergeCell ref="B111:B112"/>
+    <mergeCell ref="B113:B114"/>
+    <mergeCell ref="B115:B116"/>
+    <mergeCell ref="A117:A122"/>
+    <mergeCell ref="B117:B118"/>
+    <mergeCell ref="B119:B120"/>
+    <mergeCell ref="B121:B122"/>
+    <mergeCell ref="A99:A104"/>
+    <mergeCell ref="B99:B100"/>
+    <mergeCell ref="B101:B102"/>
+    <mergeCell ref="B103:B104"/>
+    <mergeCell ref="A105:A110"/>
+    <mergeCell ref="B105:B106"/>
+    <mergeCell ref="B107:B108"/>
+    <mergeCell ref="B109:B110"/>
+    <mergeCell ref="A135:A140"/>
+    <mergeCell ref="B135:B136"/>
+    <mergeCell ref="B137:B138"/>
+    <mergeCell ref="B139:B140"/>
+    <mergeCell ref="A141:A146"/>
+    <mergeCell ref="B141:B142"/>
+    <mergeCell ref="B143:B144"/>
+    <mergeCell ref="B145:B146"/>
+    <mergeCell ref="A123:A128"/>
+    <mergeCell ref="B123:B124"/>
+    <mergeCell ref="B125:B126"/>
+    <mergeCell ref="B127:B128"/>
+    <mergeCell ref="A129:A134"/>
+    <mergeCell ref="B129:B130"/>
+    <mergeCell ref="B131:B132"/>
+    <mergeCell ref="B133:B134"/>
+    <mergeCell ref="A159:A164"/>
+    <mergeCell ref="B159:B160"/>
+    <mergeCell ref="B161:B162"/>
+    <mergeCell ref="B163:B164"/>
+    <mergeCell ref="A165:A170"/>
+    <mergeCell ref="B165:B166"/>
+    <mergeCell ref="B167:B168"/>
+    <mergeCell ref="B169:B170"/>
+    <mergeCell ref="A147:A152"/>
+    <mergeCell ref="B147:B148"/>
+    <mergeCell ref="B149:B150"/>
+    <mergeCell ref="B151:B152"/>
+    <mergeCell ref="A153:A158"/>
+    <mergeCell ref="B153:B154"/>
+    <mergeCell ref="B155:B156"/>
+    <mergeCell ref="B157:B158"/>
+    <mergeCell ref="A183:A188"/>
+    <mergeCell ref="B183:B184"/>
+    <mergeCell ref="B185:B186"/>
+    <mergeCell ref="B187:B188"/>
+    <mergeCell ref="A171:A176"/>
+    <mergeCell ref="B171:B172"/>
+    <mergeCell ref="B173:B174"/>
+    <mergeCell ref="B175:B176"/>
+    <mergeCell ref="A177:A182"/>
+    <mergeCell ref="B177:B178"/>
+    <mergeCell ref="B179:B180"/>
+    <mergeCell ref="B181:B182"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -10683,42 +10832,42 @@
   <sheetData>
     <row r="1" spans="4:9">
       <c r="D1" s="69" t="s">
+        <v>80</v>
+      </c>
+      <c r="E1" s="69" t="s">
+        <v>91</v>
+      </c>
+      <c r="F1" s="69" t="s">
+        <v>88</v>
+      </c>
+      <c r="G1" s="68" t="s">
+        <v>87</v>
+      </c>
+      <c r="H1" s="68" t="s">
         <v>81</v>
       </c>
-      <c r="E1" s="69" t="s">
-        <v>92</v>
-      </c>
-      <c r="F1" s="69" t="s">
-        <v>89</v>
-      </c>
-      <c r="G1" s="68" t="s">
-        <v>88</v>
-      </c>
-      <c r="H1" s="68" t="s">
+      <c r="I1" s="69" t="s">
         <v>82</v>
-      </c>
-      <c r="I1" s="69" t="s">
-        <v>83</v>
       </c>
     </row>
     <row r="2" spans="4:9">
       <c r="D2" s="69" t="s">
+        <v>83</v>
+      </c>
+      <c r="E2" s="69" t="s">
+        <v>92</v>
+      </c>
+      <c r="F2" s="69" t="s">
+        <v>90</v>
+      </c>
+      <c r="G2" s="68" t="s">
+        <v>89</v>
+      </c>
+      <c r="H2" s="68" t="s">
         <v>84</v>
       </c>
-      <c r="E2" s="69" t="s">
-        <v>93</v>
-      </c>
-      <c r="F2" s="69" t="s">
-        <v>91</v>
-      </c>
-      <c r="G2" s="68" t="s">
-        <v>90</v>
-      </c>
-      <c r="H2" s="68" t="s">
+      <c r="I2" s="69" t="s">
         <v>85</v>
-      </c>
-      <c r="I2" s="69" t="s">
-        <v>86</v>
       </c>
     </row>
     <row r="3" spans="4:9">
@@ -10742,7 +10891,7 @@
   <sheetData>
     <row r="1" spans="2:2">
       <c r="B1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
   </sheetData>
@@ -10756,8 +10905,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AB1"/>
   <sheetViews>
-    <sheetView topLeftCell="G1" workbookViewId="0">
-      <selection activeCell="S1" sqref="S1:T1"/>
+    <sheetView topLeftCell="K1" workbookViewId="0">
+      <selection activeCell="AA5" sqref="AA5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -10832,12 +10981,14 @@
         <v>18</v>
       </c>
       <c r="Y1" s="50" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="Z1" s="42" t="s">
         <v>28</v>
       </c>
-      <c r="AA1" s="5"/>
+      <c r="AA1" s="42" t="s">
+        <v>95</v>
+      </c>
       <c r="AB1" s="6"/>
     </row>
   </sheetData>
@@ -10871,7 +11022,7 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B1">
         <v>8</v>
